--- a/data/correlation_coefficient_July.xlsx
+++ b/data/correlation_coefficient_July.xlsx
@@ -597,70 +597,70 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>87.80659</v>
+        <v>89.991</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>85.85329</v>
+        <v>94.574</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>-87.37647</v>
+        <v>-91.032</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>66.82595999999999</v>
+        <v>68.255</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>74.60495</v>
+        <v>85.807</v>
       </c>
       <c r="H2" s="5" t="n">
-        <v>46.42849</v>
-      </c>
-      <c r="I2" s="5" t="n">
-        <v>36.29624</v>
+        <v>43.302</v>
+      </c>
+      <c r="I2" t="n">
+        <v>25.721</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>73.9276</v>
+        <v>84.55200000000001</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>75.66655</v>
+        <v>87.11799999999999</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>7.3731</v>
+        <v>-0.322</v>
       </c>
       <c r="M2" s="3" t="n">
-        <v>77.07941</v>
-      </c>
-      <c r="N2" s="6" t="n">
-        <v>-65.99253</v>
+        <v>89.227</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>-83.973</v>
       </c>
       <c r="O2" s="6" t="n">
-        <v>-58.44971</v>
+        <v>-63.5</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>-71.58723999999999</v>
+        <v>-83.63</v>
       </c>
       <c r="Q2" s="3" t="n">
-        <v>87.05338</v>
-      </c>
-      <c r="R2" t="n">
-        <v>-27.90156</v>
-      </c>
-      <c r="S2" t="n">
-        <v>-21.60007</v>
+        <v>94.883</v>
+      </c>
+      <c r="R2" s="6" t="n">
+        <v>-52.448</v>
+      </c>
+      <c r="S2" s="6" t="n">
+        <v>-42.99</v>
       </c>
       <c r="T2" s="5" t="n">
-        <v>49.79903</v>
+        <v>60.873</v>
       </c>
       <c r="U2" s="5" t="n">
-        <v>45.5643</v>
-      </c>
-      <c r="V2" s="5" t="n">
-        <v>65.47976</v>
+        <v>56.025</v>
+      </c>
+      <c r="V2" s="3" t="n">
+        <v>84.087</v>
       </c>
       <c r="W2" s="3" t="n">
-        <v>74.81741</v>
+        <v>87.69799999999999</v>
       </c>
       <c r="X2" s="3" t="n">
-        <v>76.67726</v>
+        <v>88.01900000000001</v>
       </c>
     </row>
     <row r="3">
@@ -670,73 +670,73 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>87.80659</v>
+        <v>89.991</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>84.14054</v>
+        <v>85.16800000000001</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>-78.54568</v>
+        <v>-79.20699999999999</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>55.52291</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>79.06156</v>
+        <v>81.367</v>
       </c>
       <c r="H3" s="5" t="n">
-        <v>42.54782</v>
+        <v>36.292</v>
       </c>
       <c r="I3" s="5" t="n">
-        <v>66.54814</v>
+        <v>57.87</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>75.14721</v>
+        <v>77.29600000000001</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>83.61402</v>
+        <v>84.875</v>
       </c>
       <c r="L3" s="5" t="n">
-        <v>43.12607</v>
+        <v>38.377</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>79.59224</v>
+        <v>82.459</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>-70.66243</v>
+        <v>-75.604</v>
       </c>
       <c r="O3" s="6" t="n">
-        <v>-56.02071</v>
+        <v>-54.819</v>
       </c>
       <c r="P3" s="6" t="n">
-        <v>-61.5068</v>
+        <v>-63.426</v>
       </c>
       <c r="Q3" s="3" t="n">
-        <v>85.25966</v>
+        <v>86.467</v>
       </c>
       <c r="R3" s="6" t="n">
-        <v>-31.24029</v>
-      </c>
-      <c r="S3" t="n">
-        <v>-26.38974</v>
-      </c>
-      <c r="T3" t="n">
-        <v>28.3054</v>
-      </c>
-      <c r="U3" t="n">
-        <v>24.87228</v>
+        <v>-39.894</v>
+      </c>
+      <c r="S3" s="6" t="n">
+        <v>-33.676</v>
+      </c>
+      <c r="T3" s="5" t="n">
+        <v>32.797</v>
+      </c>
+      <c r="U3" s="5" t="n">
+        <v>35.42</v>
       </c>
       <c r="V3" s="5" t="n">
-        <v>65.3904</v>
+        <v>69.367</v>
       </c>
       <c r="W3" s="5" t="n">
-        <v>69.44109</v>
+        <v>69.996</v>
       </c>
       <c r="X3" s="5" t="n">
-        <v>69.71434000000001</v>
+        <v>69.73699999999999</v>
       </c>
     </row>
     <row r="4">
@@ -746,73 +746,73 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>85.85329</v>
+        <v>94.574</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>84.14054</v>
+        <v>85.16800000000001</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>-75.53175</v>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>56.75003</v>
+        <v>-81.142</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>73.46899999999999</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>90.29577</v>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>72.38412</v>
+        <v>90.611</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>63.899</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>44.86864</v>
+        <v>31.162</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>96.58524</v>
+        <v>96.36799999999999</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>83.60512</v>
+        <v>84.038</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>-1.24949</v>
+        <v>-7.688</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>97.73690000000001</v>
+        <v>98.125</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>-95.17954</v>
+        <v>-97.05800000000001</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>-83.71691</v>
+        <v>-80.17100000000001</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>-94.35899999999999</v>
+        <v>-94.532</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>99.00767999999999</v>
-      </c>
-      <c r="R4" s="6" t="n">
-        <v>-66.13299000000001</v>
+        <v>99.05200000000001</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-69.435</v>
       </c>
       <c r="S4" s="6" t="n">
-        <v>-60.64667</v>
+        <v>-62.136</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>51.80546</v>
-      </c>
-      <c r="U4" t="n">
-        <v>22.83242</v>
+        <v>57.701</v>
+      </c>
+      <c r="U4" s="5" t="n">
+        <v>44.881</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>90.63070999999999</v>
+        <v>91.821</v>
       </c>
       <c r="W4" s="3" t="n">
-        <v>87.2256</v>
+        <v>86.401</v>
       </c>
       <c r="X4" s="3" t="n">
-        <v>93.07511</v>
+        <v>91.792</v>
       </c>
     </row>
     <row r="5">
@@ -822,73 +822,73 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>-87.37647</v>
+        <v>-91.032</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>-78.54568</v>
+        <v>-79.20699999999999</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>-75.53175</v>
+        <v>-81.142</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F5" t="n">
-        <v>-22.31897</v>
+      <c r="F5" s="6" t="n">
+        <v>-31.986</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-60.10176</v>
+        <v>-68.277</v>
       </c>
       <c r="H5" t="n">
-        <v>-20.44381</v>
+        <v>-15.009</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>-6.16906</v>
+        <v>3.862</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-55.99776</v>
-      </c>
-      <c r="K5" t="n">
-        <v>-69.17512000000001</v>
-      </c>
-      <c r="L5" s="2" t="n">
-        <v>7.4945</v>
-      </c>
-      <c r="M5" s="6" t="n">
-        <v>-62.03914</v>
+        <v>-62.609</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>-77.72199999999999</v>
+      </c>
+      <c r="L5" t="n">
+        <v>13.716</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>-70.187</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>58.49879</v>
+        <v>68.27200000000001</v>
       </c>
       <c r="O5" s="5" t="n">
-        <v>40.61757</v>
-      </c>
-      <c r="P5" s="5" t="n">
-        <v>62.37446</v>
+        <v>41.925</v>
+      </c>
+      <c r="P5" s="3" t="n">
+        <v>70.69</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>-76.99867999999999</v>
-      </c>
-      <c r="R5" t="n">
-        <v>25.00342</v>
+        <v>-81.748</v>
+      </c>
+      <c r="R5" s="5" t="n">
+        <v>41.411</v>
       </c>
       <c r="S5" t="n">
-        <v>11.78898</v>
+        <v>24.713</v>
       </c>
       <c r="T5" s="6" t="n">
-        <v>-45.02647</v>
+        <v>-57.859</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>-45.66051</v>
-      </c>
-      <c r="V5" s="6" t="n">
-        <v>-59.8646</v>
+        <v>-58.655</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>-72.7</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>-78.37797999999999</v>
+        <v>-86.334</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>-72.98394999999999</v>
+        <v>-81.142</v>
       </c>
     </row>
     <row r="6">
@@ -898,73 +898,73 @@
         </is>
       </c>
       <c r="B6" s="5" t="n">
-        <v>66.82595999999999</v>
+        <v>68.255</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>55.52291</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>56.75003</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-22.31897</v>
+        <v>65.90000000000001</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>73.46899999999999</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>-31.986</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="5" t="n">
-        <v>57.63194</v>
-      </c>
-      <c r="H6" s="5" t="n">
-        <v>62.24894</v>
+      <c r="G6" s="3" t="n">
+        <v>76.063</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>73.11499999999999</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>62.87361</v>
-      </c>
-      <c r="J6" s="5" t="n">
-        <v>62.79784</v>
+        <v>65.342</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>83.33799999999999</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>45.51452</v>
+        <v>62.077</v>
       </c>
       <c r="L6" t="n">
-        <v>25.30766</v>
-      </c>
-      <c r="M6" s="5" t="n">
-        <v>59.76423</v>
-      </c>
-      <c r="N6" s="6" t="n">
-        <v>-43.05653</v>
-      </c>
-      <c r="O6" s="6" t="n">
-        <v>-55.61949</v>
+        <v>22.653</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>80.545</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>-72.026</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>-71.872</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>-48.57576</v>
-      </c>
-      <c r="Q6" s="5" t="n">
-        <v>56.87786</v>
-      </c>
-      <c r="R6" t="n">
-        <v>-18.26312</v>
-      </c>
-      <c r="S6" t="n">
-        <v>-25.82634</v>
+        <v>-67.14100000000001</v>
+      </c>
+      <c r="Q6" s="3" t="n">
+        <v>73.053</v>
+      </c>
+      <c r="R6" s="6" t="n">
+        <v>-47.631</v>
+      </c>
+      <c r="S6" s="6" t="n">
+        <v>-55.431</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>31.13623</v>
+        <v>37.404</v>
       </c>
       <c r="U6" t="n">
-        <v>21.57115</v>
+        <v>24.783</v>
       </c>
       <c r="V6" s="5" t="n">
-        <v>39.76326</v>
+        <v>64.404</v>
       </c>
       <c r="W6" s="5" t="n">
-        <v>30.12534</v>
+        <v>48.464</v>
       </c>
       <c r="X6" s="5" t="n">
-        <v>42.22588</v>
+        <v>58.549</v>
       </c>
     </row>
     <row r="7">
@@ -974,73 +974,73 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>74.60495</v>
+        <v>85.807</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>79.06156</v>
+        <v>81.367</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>90.29577</v>
+        <v>90.611</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-60.10176</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>57.63194</v>
+        <v>-68.277</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>76.063</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H7" s="3" t="n">
-        <v>75.964</v>
+      <c r="H7" s="5" t="n">
+        <v>66.64</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>55.21169</v>
+        <v>42.129</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>90.38401</v>
+        <v>89.718</v>
       </c>
       <c r="K7" s="3" t="n">
-        <v>94.6888</v>
+        <v>94.48099999999999</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>7.58051</v>
+        <v>2.237</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>89.44728000000001</v>
+        <v>89.651</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>-87.73559</v>
+        <v>-87.93899999999999</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>-62.52074</v>
+        <v>-57.807</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>-83.37096</v>
+        <v>-83.113</v>
       </c>
       <c r="Q7" s="3" t="n">
-        <v>90.3708</v>
+        <v>90.758</v>
       </c>
       <c r="R7" s="6" t="n">
-        <v>-62.32654</v>
+        <v>-64.43000000000001</v>
       </c>
       <c r="S7" s="6" t="n">
-        <v>-56.42929</v>
+        <v>-56.922</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>47.01193</v>
-      </c>
-      <c r="U7" t="n">
-        <v>14.99332</v>
+        <v>52.279</v>
+      </c>
+      <c r="U7" s="5" t="n">
+        <v>37.78</v>
       </c>
       <c r="V7" s="3" t="n">
-        <v>85.36582</v>
+        <v>86.393</v>
       </c>
       <c r="W7" s="3" t="n">
-        <v>80.75467</v>
+        <v>80.687</v>
       </c>
       <c r="X7" s="3" t="n">
-        <v>84.67695999999999</v>
+        <v>84.684</v>
       </c>
     </row>
     <row r="8">
@@ -1050,73 +1050,73 @@
         </is>
       </c>
       <c r="B8" s="5" t="n">
-        <v>46.42849</v>
+        <v>43.302</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>42.54782</v>
-      </c>
-      <c r="D8" s="3" t="n">
-        <v>72.38412</v>
+        <v>36.292</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>63.899</v>
       </c>
       <c r="E8" t="n">
-        <v>-20.44381</v>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v>62.24894</v>
-      </c>
-      <c r="G8" s="3" t="n">
-        <v>75.964</v>
+        <v>-15.009</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>73.11499999999999</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>66.64</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>44.40204</v>
+        <v>39.695</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>83.52555</v>
+        <v>78.515</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>51.16036</v>
+        <v>38.671</v>
       </c>
       <c r="L8" t="n">
-        <v>-20.89237</v>
-      </c>
-      <c r="M8" s="3" t="n">
-        <v>75.13919</v>
+        <v>-21.695</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>68.259</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>-78.32664</v>
+        <v>-74.744</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>-74.66323</v>
+        <v>-73.2</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>-79.41242</v>
+        <v>-71.52500000000001</v>
       </c>
       <c r="Q8" s="5" t="n">
-        <v>68.66221</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>-71.71462</v>
+        <v>60.99</v>
+      </c>
+      <c r="R8" s="6" t="n">
+        <v>-67.446</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>-72.7538</v>
-      </c>
-      <c r="T8" s="5" t="n">
-        <v>34.80397</v>
+        <v>-72.679</v>
+      </c>
+      <c r="T8" t="n">
+        <v>23.125</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>-4.93928</v>
-      </c>
-      <c r="V8" s="3" t="n">
-        <v>70.27818000000001</v>
+        <v>-1.356</v>
+      </c>
+      <c r="V8" s="5" t="n">
+        <v>60.888</v>
       </c>
       <c r="W8" s="5" t="n">
-        <v>51.84441</v>
+        <v>37.5</v>
       </c>
       <c r="X8" s="5" t="n">
-        <v>64.62956</v>
+        <v>51.029</v>
       </c>
     </row>
     <row r="9">
@@ -1125,74 +1125,74 @@
           <t>EURJPY</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n">
-        <v>36.29624</v>
+      <c r="B9" t="n">
+        <v>25.721</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>66.54814</v>
+        <v>57.87</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>44.86864</v>
+        <v>31.162</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-6.16906</v>
+        <v>3.862</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>62.87361</v>
+        <v>65.342</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>55.21169</v>
+        <v>42.129</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>44.40204</v>
+        <v>39.695</v>
       </c>
       <c r="I9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>54.01486</v>
+        <v>43.111</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>51.33594</v>
+        <v>35.031</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>78.29589</v>
+        <v>80.938</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>53.81897</v>
+        <v>41.357</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>-43.75169</v>
+        <v>-32.773</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>-41.91961</v>
-      </c>
-      <c r="P9" t="n">
-        <v>-24.35058</v>
+        <v>-34.084</v>
+      </c>
+      <c r="P9" s="2" t="n">
+        <v>-9.605</v>
       </c>
       <c r="Q9" s="5" t="n">
-        <v>44.88219</v>
-      </c>
-      <c r="R9" t="n">
-        <v>-20.72223</v>
+        <v>32.457</v>
+      </c>
+      <c r="R9" s="2" t="n">
+        <v>-10.329</v>
       </c>
       <c r="S9" t="n">
-        <v>-28.86793</v>
-      </c>
-      <c r="T9" s="2" t="n">
-        <v>-8.697800000000001</v>
+        <v>-22.476</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-23.757</v>
       </c>
       <c r="U9" t="n">
-        <v>-15.07916</v>
-      </c>
-      <c r="V9" s="5" t="n">
-        <v>33.39428</v>
-      </c>
-      <c r="W9" t="n">
-        <v>17.50707</v>
-      </c>
-      <c r="X9" t="n">
-        <v>24.5534</v>
+        <v>-20.577</v>
+      </c>
+      <c r="V9" t="n">
+        <v>16.524</v>
+      </c>
+      <c r="W9" s="2" t="n">
+        <v>-0.8090000000000001</v>
+      </c>
+      <c r="X9" s="2" t="n">
+        <v>5.848</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>73.9276</v>
+        <v>84.55200000000001</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>75.14721</v>
+        <v>77.29600000000001</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>96.58524</v>
+        <v>96.36799999999999</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>-55.99776</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>62.79784</v>
+        <v>-62.609</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>83.33799999999999</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>90.38401</v>
+        <v>89.718</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>83.52555</v>
+        <v>78.515</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>54.01486</v>
+        <v>43.111</v>
       </c>
       <c r="J10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="K10" s="3" t="n">
-        <v>78.25396000000001</v>
+        <v>76.55500000000001</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>0.99251</v>
+        <v>-4.339</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>99.03775</v>
+        <v>98.84699999999999</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>-97.2764</v>
+        <v>-98.364</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>-89.87799</v>
+        <v>-87.876</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>-94.77422</v>
+        <v>-93.95099999999999</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>94.73598</v>
+        <v>94.807</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>-73.97663</v>
+        <v>-73.968</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>-72.22589000000001</v>
+        <v>-71.813</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>47.79054</v>
-      </c>
-      <c r="U10" s="2" t="n">
-        <v>10.8209</v>
+        <v>50.622</v>
+      </c>
+      <c r="U10" s="5" t="n">
+        <v>33.089</v>
       </c>
       <c r="V10" s="3" t="n">
-        <v>90.9575</v>
+        <v>89.357</v>
       </c>
       <c r="W10" s="3" t="n">
-        <v>79.34844</v>
+        <v>75.884</v>
       </c>
       <c r="X10" s="3" t="n">
-        <v>88.88168</v>
+        <v>85.47799999999999</v>
       </c>
     </row>
     <row r="11">
@@ -1278,73 +1278,73 @@
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>75.66655</v>
+        <v>87.11799999999999</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>83.61402</v>
+        <v>84.875</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>83.60512</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-69.17512000000001</v>
+        <v>84.038</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>-77.72199999999999</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45.51452</v>
+        <v>62.077</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v>94.6888</v>
+        <v>94.48099999999999</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>51.16036</v>
+        <v>38.671</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>51.33594</v>
+        <v>35.031</v>
       </c>
       <c r="J11" s="3" t="n">
-        <v>78.25396000000001</v>
+        <v>76.55500000000001</v>
       </c>
       <c r="K11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>20.65354</v>
+        <v>12.655</v>
       </c>
       <c r="M11" s="3" t="n">
-        <v>81.16121</v>
+        <v>80.977</v>
       </c>
       <c r="N11" s="4" t="n">
-        <v>-77.30101000000001</v>
+        <v>-75.991</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>-45.71635</v>
+        <v>-39.325</v>
       </c>
       <c r="P11" s="4" t="n">
-        <v>-70.90246</v>
+        <v>-71.31699999999999</v>
       </c>
       <c r="Q11" s="3" t="n">
-        <v>85.54828999999999</v>
+        <v>85.515</v>
       </c>
       <c r="R11" s="6" t="n">
-        <v>-46.98772</v>
+        <v>-50.153</v>
       </c>
       <c r="S11" s="6" t="n">
-        <v>-38.69878</v>
+        <v>-38.601</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>44.78578</v>
-      </c>
-      <c r="U11" t="n">
-        <v>21.97319</v>
+        <v>54.32</v>
+      </c>
+      <c r="U11" s="5" t="n">
+        <v>47.063</v>
       </c>
       <c r="V11" s="3" t="n">
-        <v>78.15515000000001</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="W11" s="3" t="n">
-        <v>81.08313</v>
+        <v>83.29000000000001</v>
       </c>
       <c r="X11" s="3" t="n">
-        <v>79.95898</v>
+        <v>82.249</v>
       </c>
     </row>
     <row r="12">
@@ -1354,73 +1354,73 @@
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>7.3731</v>
+        <v>-0.322</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>43.12607</v>
+        <v>38.377</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-1.24949</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>7.4945</v>
+        <v>-7.688</v>
+      </c>
+      <c r="E12" t="n">
+        <v>13.716</v>
       </c>
       <c r="F12" t="n">
-        <v>25.30766</v>
+        <v>22.653</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>7.58051</v>
+        <v>2.237</v>
       </c>
       <c r="H12" t="n">
-        <v>-20.89237</v>
+        <v>-21.695</v>
       </c>
       <c r="I12" s="3" t="n">
-        <v>78.29589</v>
+        <v>80.938</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.99251</v>
+        <v>-4.339</v>
       </c>
       <c r="K12" t="n">
-        <v>20.65354</v>
+        <v>12.655</v>
       </c>
       <c r="L12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>6.62201</v>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>6.57006</v>
+        <v>0.38</v>
+      </c>
+      <c r="N12" t="n">
+        <v>12.895</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>6.14958</v>
-      </c>
-      <c r="P12" t="n">
-        <v>28.5284</v>
+        <v>10.629</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>35.501</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>1.3453</v>
-      </c>
-      <c r="R12" t="n">
-        <v>27.05448</v>
+        <v>-4.454</v>
+      </c>
+      <c r="R12" s="5" t="n">
+        <v>31.969</v>
       </c>
       <c r="S12" t="n">
-        <v>18.95333</v>
+        <v>22.467</v>
       </c>
       <c r="T12" s="6" t="n">
-        <v>-33.65936</v>
+        <v>-40.008</v>
       </c>
       <c r="U12" t="n">
-        <v>-13.15861</v>
+        <v>-21.004</v>
       </c>
       <c r="V12" t="n">
-        <v>-12.18375</v>
+        <v>-21.245</v>
       </c>
       <c r="W12" t="n">
-        <v>-16.73647</v>
+        <v>-24.687</v>
       </c>
       <c r="X12" t="n">
-        <v>-17.969</v>
+        <v>-26.332</v>
       </c>
     </row>
     <row r="13">
@@ -1430,73 +1430,73 @@
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>77.07941</v>
+        <v>89.227</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>79.59224</v>
+        <v>82.459</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>97.73690000000001</v>
-      </c>
-      <c r="E13" s="6" t="n">
-        <v>-62.03914</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>59.76423</v>
+        <v>98.125</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>-70.187</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>80.545</v>
       </c>
       <c r="G13" s="3" t="n">
-        <v>89.44728000000001</v>
-      </c>
-      <c r="H13" s="3" t="n">
-        <v>75.13919</v>
+        <v>89.651</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>68.259</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>53.81897</v>
+        <v>41.357</v>
       </c>
       <c r="J13" s="3" t="n">
-        <v>99.03775</v>
+        <v>98.84699999999999</v>
       </c>
       <c r="K13" s="3" t="n">
-        <v>81.16121</v>
+        <v>80.977</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>6.62201</v>
+        <v>0.38</v>
       </c>
       <c r="M13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N13" s="4" t="n">
-        <v>-97.06491</v>
+        <v>-97.822</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>-89.04348</v>
+        <v>-85.773</v>
       </c>
       <c r="P13" s="4" t="n">
-        <v>-93.7419</v>
+        <v>-93.348</v>
       </c>
       <c r="Q13" s="3" t="n">
-        <v>96.46592</v>
+        <v>97.01000000000001</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>-70.72877</v>
+        <v>-70.78700000000001</v>
       </c>
       <c r="S13" s="6" t="n">
-        <v>-68.36445000000001</v>
+        <v>-66.965</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>48.50867</v>
-      </c>
-      <c r="U13" t="n">
-        <v>14.11505</v>
+        <v>53.981</v>
+      </c>
+      <c r="U13" s="5" t="n">
+        <v>39.279</v>
       </c>
       <c r="V13" s="3" t="n">
-        <v>91.52639000000001</v>
+        <v>90.572</v>
       </c>
       <c r="W13" s="3" t="n">
-        <v>82.2101</v>
+        <v>80.381</v>
       </c>
       <c r="X13" s="3" t="n">
-        <v>90.41759999999999</v>
+        <v>88.375</v>
       </c>
     </row>
     <row r="14">
@@ -1505,74 +1505,74 @@
           <t>USDCAD</t>
         </is>
       </c>
-      <c r="B14" s="6" t="n">
-        <v>-65.99253</v>
+      <c r="B14" s="4" t="n">
+        <v>-83.973</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>-70.66243</v>
+        <v>-75.604</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>-95.17954</v>
+        <v>-97.05800000000001</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>58.49879</v>
-      </c>
-      <c r="F14" s="6" t="n">
-        <v>-43.05653</v>
+        <v>68.27200000000001</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>-72.026</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>-87.73559</v>
+        <v>-87.93899999999999</v>
       </c>
       <c r="H14" s="4" t="n">
-        <v>-78.32664</v>
+        <v>-74.744</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-43.75169</v>
+        <v>-32.773</v>
       </c>
       <c r="J14" s="4" t="n">
-        <v>-97.2764</v>
+        <v>-98.364</v>
       </c>
       <c r="K14" s="4" t="n">
-        <v>-77.30101000000001</v>
-      </c>
-      <c r="L14" s="2" t="n">
-        <v>6.57006</v>
+        <v>-75.991</v>
+      </c>
+      <c r="L14" t="n">
+        <v>12.895</v>
       </c>
       <c r="M14" s="4" t="n">
-        <v>-97.06491</v>
+        <v>-97.822</v>
       </c>
       <c r="N14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O14" s="3" t="n">
-        <v>87.6018</v>
+        <v>86.76600000000001</v>
       </c>
       <c r="P14" s="3" t="n">
-        <v>95.51875</v>
+        <v>96.071</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>-93.01203</v>
+        <v>-95.251</v>
       </c>
       <c r="R14" s="3" t="n">
-        <v>80.39094</v>
+        <v>77.35299999999999</v>
       </c>
       <c r="S14" s="3" t="n">
-        <v>76.04419</v>
+        <v>72.06699999999999</v>
       </c>
       <c r="T14" s="6" t="n">
-        <v>-46.22535</v>
-      </c>
-      <c r="U14" s="2" t="n">
-        <v>-6.21965</v>
+        <v>-51.36</v>
+      </c>
+      <c r="U14" s="6" t="n">
+        <v>-33.454</v>
       </c>
       <c r="V14" s="4" t="n">
-        <v>-93.69512</v>
+        <v>-91.218</v>
       </c>
       <c r="W14" s="4" t="n">
-        <v>-83.19552</v>
+        <v>-79.55500000000001</v>
       </c>
       <c r="X14" s="4" t="n">
-        <v>-90.60675999999999</v>
+        <v>-88.273</v>
       </c>
     </row>
     <row r="15">
@@ -1582,73 +1582,73 @@
         </is>
       </c>
       <c r="B15" s="6" t="n">
-        <v>-58.44971</v>
+        <v>-63.5</v>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-56.02071</v>
+        <v>-54.819</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>-83.71691</v>
+        <v>-80.17100000000001</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>40.61757</v>
-      </c>
-      <c r="F15" s="6" t="n">
-        <v>-55.61949</v>
+        <v>41.925</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>-71.872</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-62.52074</v>
+        <v>-57.807</v>
       </c>
       <c r="H15" s="4" t="n">
-        <v>-74.66323</v>
+        <v>-73.2</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-41.91961</v>
+        <v>-34.084</v>
       </c>
       <c r="J15" s="4" t="n">
-        <v>-89.87799</v>
+        <v>-87.876</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-45.71635</v>
+        <v>-39.325</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>6.14958</v>
+        <v>10.629</v>
       </c>
       <c r="M15" s="4" t="n">
-        <v>-89.04348</v>
+        <v>-85.773</v>
       </c>
       <c r="N15" s="3" t="n">
-        <v>87.6018</v>
+        <v>86.76600000000001</v>
       </c>
       <c r="O15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="P15" s="3" t="n">
-        <v>87.56588000000001</v>
+        <v>83.87</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>-80.28024000000001</v>
-      </c>
-      <c r="R15" s="3" t="n">
-        <v>71.21675</v>
+        <v>-77.142</v>
+      </c>
+      <c r="R15" s="5" t="n">
+        <v>67.11499999999999</v>
       </c>
       <c r="S15" s="3" t="n">
-        <v>74.07718</v>
+        <v>71.267</v>
       </c>
       <c r="T15" s="6" t="n">
-        <v>-39.00668</v>
-      </c>
-      <c r="U15" s="2" t="n">
-        <v>-4.49096</v>
+        <v>-37.022</v>
+      </c>
+      <c r="U15" t="n">
+        <v>-20.336</v>
       </c>
       <c r="V15" s="4" t="n">
-        <v>-78.48963000000001</v>
+        <v>-71.789</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>-62.04709</v>
-      </c>
-      <c r="X15" s="4" t="n">
-        <v>-75.41989</v>
+        <v>-53.025</v>
+      </c>
+      <c r="X15" s="6" t="n">
+        <v>-66.45699999999999</v>
       </c>
     </row>
     <row r="16">
@@ -1658,73 +1658,73 @@
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>-71.58723999999999</v>
+        <v>-83.63</v>
       </c>
       <c r="C16" s="6" t="n">
-        <v>-61.5068</v>
+        <v>-63.426</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>-94.35899999999999</v>
-      </c>
-      <c r="E16" s="5" t="n">
-        <v>62.37446</v>
+        <v>-94.532</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>70.69</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>-48.57576</v>
+        <v>-67.14100000000001</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>-83.37096</v>
+        <v>-83.113</v>
       </c>
       <c r="H16" s="4" t="n">
-        <v>-79.41242</v>
-      </c>
-      <c r="I16" t="n">
-        <v>-24.35058</v>
+        <v>-71.52500000000001</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>-9.605</v>
       </c>
       <c r="J16" s="4" t="n">
-        <v>-94.77422</v>
+        <v>-93.95099999999999</v>
       </c>
       <c r="K16" s="4" t="n">
-        <v>-70.90246</v>
-      </c>
-      <c r="L16" t="n">
-        <v>28.5284</v>
+        <v>-71.31699999999999</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>35.501</v>
       </c>
       <c r="M16" s="4" t="n">
-        <v>-93.7419</v>
+        <v>-93.348</v>
       </c>
       <c r="N16" s="3" t="n">
-        <v>95.51875</v>
+        <v>96.071</v>
       </c>
       <c r="O16" s="3" t="n">
-        <v>87.56588000000001</v>
+        <v>83.87</v>
       </c>
       <c r="P16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>-92.25593000000001</v>
+        <v>-92.34999999999999</v>
       </c>
       <c r="R16" s="3" t="n">
-        <v>77.35303</v>
+        <v>77.63</v>
       </c>
       <c r="S16" s="3" t="n">
-        <v>72.20910000000001</v>
+        <v>70.59099999999999</v>
       </c>
       <c r="T16" s="6" t="n">
-        <v>-58.37414</v>
-      </c>
-      <c r="U16" t="n">
-        <v>-18.21608</v>
+        <v>-64.849</v>
+      </c>
+      <c r="U16" s="6" t="n">
+        <v>-44.308</v>
       </c>
       <c r="V16" s="4" t="n">
-        <v>-92.18714</v>
+        <v>-92.33199999999999</v>
       </c>
       <c r="W16" s="4" t="n">
-        <v>-84.91061000000001</v>
+        <v>-84.10899999999999</v>
       </c>
       <c r="X16" s="4" t="n">
-        <v>-93.16691</v>
+        <v>-92.117</v>
       </c>
     </row>
     <row r="17">
@@ -1734,73 +1734,73 @@
         </is>
       </c>
       <c r="B17" s="3" t="n">
-        <v>87.05338</v>
+        <v>94.883</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>85.25966</v>
+        <v>86.467</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>99.00767999999999</v>
+        <v>99.05200000000001</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>-76.99867999999999</v>
-      </c>
-      <c r="F17" s="5" t="n">
-        <v>56.87786</v>
+        <v>-81.748</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>73.053</v>
       </c>
       <c r="G17" s="3" t="n">
-        <v>90.3708</v>
+        <v>90.758</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>68.66221</v>
+        <v>60.99</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>44.88219</v>
+        <v>32.457</v>
       </c>
       <c r="J17" s="3" t="n">
-        <v>94.73598</v>
+        <v>94.807</v>
       </c>
       <c r="K17" s="3" t="n">
-        <v>85.54828999999999</v>
+        <v>85.515</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.3453</v>
+        <v>-4.454</v>
       </c>
       <c r="M17" s="3" t="n">
-        <v>96.46592</v>
+        <v>97.01000000000001</v>
       </c>
       <c r="N17" s="4" t="n">
-        <v>-93.01203</v>
+        <v>-95.251</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>-80.28024000000001</v>
+        <v>-77.142</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>-92.25593000000001</v>
+        <v>-92.34999999999999</v>
       </c>
       <c r="Q17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="6" t="n">
-        <v>-61.36048</v>
+        <v>-64.379</v>
       </c>
       <c r="S17" s="6" t="n">
-        <v>-56.11438</v>
+        <v>-57.466</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>48.3569</v>
-      </c>
-      <c r="U17" t="n">
-        <v>20.42357</v>
+        <v>53.48</v>
+      </c>
+      <c r="U17" s="5" t="n">
+        <v>41.568</v>
       </c>
       <c r="V17" s="3" t="n">
-        <v>89.75228</v>
+        <v>90.91200000000001</v>
       </c>
       <c r="W17" s="3" t="n">
-        <v>87.49069</v>
+        <v>86.01300000000001</v>
       </c>
       <c r="X17" s="3" t="n">
-        <v>92.61414000000001</v>
+        <v>90.82299999999999</v>
       </c>
     </row>
     <row r="18">
@@ -1809,74 +1809,74 @@
           <t>XAUUSD</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>-27.90156</v>
+      <c r="B18" s="6" t="n">
+        <v>-52.448</v>
       </c>
       <c r="C18" s="6" t="n">
-        <v>-31.24029</v>
-      </c>
-      <c r="D18" s="6" t="n">
-        <v>-66.13299000000001</v>
-      </c>
-      <c r="E18" t="n">
-        <v>25.00342</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-18.26312</v>
+        <v>-39.894</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-69.435</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>41.411</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>-47.631</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-62.32654</v>
-      </c>
-      <c r="H18" s="4" t="n">
-        <v>-71.71462</v>
-      </c>
-      <c r="I18" t="n">
-        <v>-20.72223</v>
+        <v>-64.43000000000001</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>-67.446</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>-10.329</v>
       </c>
       <c r="J18" s="4" t="n">
-        <v>-73.97663</v>
+        <v>-73.968</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>-46.98772</v>
-      </c>
-      <c r="L18" t="n">
-        <v>27.05448</v>
+        <v>-50.153</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>31.969</v>
       </c>
       <c r="M18" s="4" t="n">
-        <v>-70.72877</v>
+        <v>-70.78700000000001</v>
       </c>
       <c r="N18" s="3" t="n">
-        <v>80.39094</v>
-      </c>
-      <c r="O18" s="3" t="n">
-        <v>71.21675</v>
+        <v>77.35299999999999</v>
+      </c>
+      <c r="O18" s="5" t="n">
+        <v>67.11499999999999</v>
       </c>
       <c r="P18" s="3" t="n">
-        <v>77.35303</v>
+        <v>77.63</v>
       </c>
       <c r="Q18" s="6" t="n">
-        <v>-61.36048</v>
+        <v>-64.379</v>
       </c>
       <c r="R18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="S18" s="3" t="n">
-        <v>95.54616</v>
+        <v>93.691</v>
       </c>
       <c r="T18" s="6" t="n">
-        <v>-36.35782</v>
-      </c>
-      <c r="U18" s="2" t="n">
-        <v>8.145989999999999</v>
-      </c>
-      <c r="V18" s="4" t="n">
-        <v>-71.54210999999999</v>
+        <v>-46.668</v>
+      </c>
+      <c r="U18" t="n">
+        <v>-25.251</v>
+      </c>
+      <c r="V18" s="6" t="n">
+        <v>-68.54000000000001</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>-56.46191</v>
+        <v>-57.635</v>
       </c>
       <c r="X18" s="6" t="n">
-        <v>-64.37752999999999</v>
+        <v>-66.12</v>
       </c>
     </row>
     <row r="19">
@@ -1885,74 +1885,74 @@
           <t>XAGUSD</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>-21.60007</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-26.38974</v>
+      <c r="B19" s="6" t="n">
+        <v>-42.99</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-33.676</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>-60.64667</v>
+        <v>-62.136</v>
       </c>
       <c r="E19" t="n">
-        <v>11.78898</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-25.82634</v>
+        <v>24.713</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-55.431</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>-56.42929</v>
+        <v>-56.922</v>
       </c>
       <c r="H19" s="4" t="n">
-        <v>-72.7538</v>
+        <v>-72.679</v>
       </c>
       <c r="I19" t="n">
-        <v>-28.86793</v>
+        <v>-22.476</v>
       </c>
       <c r="J19" s="4" t="n">
-        <v>-72.22589000000001</v>
+        <v>-71.813</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-38.69878</v>
+        <v>-38.601</v>
       </c>
       <c r="L19" t="n">
-        <v>18.95333</v>
+        <v>22.467</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>-68.36445000000001</v>
+        <v>-66.965</v>
       </c>
       <c r="N19" s="3" t="n">
-        <v>76.04419</v>
+        <v>72.06699999999999</v>
       </c>
       <c r="O19" s="3" t="n">
-        <v>74.07718</v>
+        <v>71.267</v>
       </c>
       <c r="P19" s="3" t="n">
-        <v>72.20910000000001</v>
+        <v>70.59099999999999</v>
       </c>
       <c r="Q19" s="6" t="n">
-        <v>-56.11438</v>
+        <v>-57.466</v>
       </c>
       <c r="R19" s="3" t="n">
-        <v>95.54616</v>
+        <v>93.691</v>
       </c>
       <c r="S19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T19" s="6" t="n">
-        <v>-32.7302</v>
+        <v>-38.319</v>
       </c>
       <c r="U19" t="n">
-        <v>11.45238</v>
+        <v>-16.592</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>-66.55354</v>
+        <v>-60.174</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>-46.73886</v>
+        <v>-43.274</v>
       </c>
       <c r="X19" s="6" t="n">
-        <v>-57.10786</v>
+        <v>-55.012</v>
       </c>
     </row>
     <row r="20">
@@ -1962,73 +1962,73 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>49.79903</v>
-      </c>
-      <c r="C20" t="n">
-        <v>28.3054</v>
+        <v>60.873</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>32.797</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>51.80546</v>
+        <v>57.701</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-45.02647</v>
+        <v>-57.859</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>31.13623</v>
+        <v>37.404</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>47.01193</v>
-      </c>
-      <c r="H20" s="5" t="n">
-        <v>34.80397</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>-8.697800000000001</v>
+        <v>52.279</v>
+      </c>
+      <c r="H20" t="n">
+        <v>23.125</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-23.757</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>47.79054</v>
+        <v>50.622</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>44.78578</v>
+        <v>54.32</v>
       </c>
       <c r="L20" s="6" t="n">
-        <v>-33.65936</v>
+        <v>-40.008</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>48.50867</v>
+        <v>53.981</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>-46.22535</v>
+        <v>-51.36</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>-39.00668</v>
+        <v>-37.022</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>-58.37414</v>
+        <v>-64.849</v>
       </c>
       <c r="Q20" s="5" t="n">
-        <v>48.3569</v>
+        <v>53.48</v>
       </c>
       <c r="R20" s="6" t="n">
-        <v>-36.35782</v>
+        <v>-46.668</v>
       </c>
       <c r="S20" s="6" t="n">
-        <v>-32.7302</v>
+        <v>-38.319</v>
       </c>
       <c r="T20" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="U20" s="5" t="n">
-        <v>53.74984</v>
+      <c r="U20" s="3" t="n">
+        <v>75.78400000000001</v>
       </c>
       <c r="V20" s="5" t="n">
-        <v>47.30559</v>
+        <v>57.898</v>
       </c>
       <c r="W20" s="5" t="n">
-        <v>52.99279</v>
+        <v>66.444</v>
       </c>
       <c r="X20" s="5" t="n">
-        <v>56.50294</v>
+        <v>67.842</v>
       </c>
     </row>
     <row r="21">
@@ -2038,73 +2038,73 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>45.5643</v>
-      </c>
-      <c r="C21" t="n">
-        <v>24.87228</v>
-      </c>
-      <c r="D21" t="n">
-        <v>22.83242</v>
+        <v>56.025</v>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>35.42</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>44.881</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-45.66051</v>
+        <v>-58.655</v>
       </c>
       <c r="F21" t="n">
-        <v>21.57115</v>
-      </c>
-      <c r="G21" t="n">
-        <v>14.99332</v>
+        <v>24.783</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>37.78</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-4.93928</v>
+        <v>-1.356</v>
       </c>
       <c r="I21" t="n">
-        <v>-15.07916</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>10.8209</v>
-      </c>
-      <c r="K21" t="n">
-        <v>21.97319</v>
+        <v>-20.577</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>33.089</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>47.063</v>
       </c>
       <c r="L21" t="n">
-        <v>-13.15861</v>
-      </c>
-      <c r="M21" t="n">
-        <v>14.11505</v>
-      </c>
-      <c r="N21" s="2" t="n">
-        <v>-6.21965</v>
-      </c>
-      <c r="O21" s="2" t="n">
-        <v>-4.49096</v>
-      </c>
-      <c r="P21" t="n">
-        <v>-18.21608</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>20.42357</v>
-      </c>
-      <c r="R21" s="2" t="n">
-        <v>8.145989999999999</v>
+        <v>-21.004</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>39.279</v>
+      </c>
+      <c r="N21" s="6" t="n">
+        <v>-33.454</v>
+      </c>
+      <c r="O21" t="n">
+        <v>-20.336</v>
+      </c>
+      <c r="P21" s="6" t="n">
+        <v>-44.308</v>
+      </c>
+      <c r="Q21" s="5" t="n">
+        <v>41.568</v>
+      </c>
+      <c r="R21" t="n">
+        <v>-25.251</v>
       </c>
       <c r="S21" t="n">
-        <v>11.45238</v>
-      </c>
-      <c r="T21" s="5" t="n">
-        <v>53.74984</v>
+        <v>-16.592</v>
+      </c>
+      <c r="T21" s="3" t="n">
+        <v>75.78400000000001</v>
       </c>
       <c r="U21" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="V21" t="n">
-        <v>12.14545</v>
-      </c>
-      <c r="W21" t="n">
-        <v>29.53274</v>
-      </c>
-      <c r="X21" t="n">
-        <v>24.20536</v>
+      <c r="V21" s="5" t="n">
+        <v>44.678</v>
+      </c>
+      <c r="W21" s="5" t="n">
+        <v>60.509</v>
+      </c>
+      <c r="X21" s="5" t="n">
+        <v>54.619</v>
       </c>
     </row>
     <row r="22">
@@ -2113,74 +2113,74 @@
           <t>US30</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n">
-        <v>65.47976</v>
+      <c r="B22" s="3" t="n">
+        <v>84.087</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>65.3904</v>
+        <v>69.367</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>90.63070999999999</v>
-      </c>
-      <c r="E22" s="6" t="n">
-        <v>-59.8646</v>
+        <v>91.821</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>-72.7</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>39.76326</v>
+        <v>64.404</v>
       </c>
       <c r="G22" s="3" t="n">
-        <v>85.36582</v>
-      </c>
-      <c r="H22" s="3" t="n">
-        <v>70.27818000000001</v>
-      </c>
-      <c r="I22" s="5" t="n">
-        <v>33.39428</v>
+        <v>86.393</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>60.888</v>
+      </c>
+      <c r="I22" t="n">
+        <v>16.524</v>
       </c>
       <c r="J22" s="3" t="n">
-        <v>90.9575</v>
+        <v>89.357</v>
       </c>
       <c r="K22" s="3" t="n">
-        <v>78.15515000000001</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="L22" t="n">
-        <v>-12.18375</v>
+        <v>-21.245</v>
       </c>
       <c r="M22" s="3" t="n">
-        <v>91.52639000000001</v>
+        <v>90.572</v>
       </c>
       <c r="N22" s="4" t="n">
-        <v>-93.69512</v>
+        <v>-91.218</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>-78.48963000000001</v>
+        <v>-71.789</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>-92.18714</v>
+        <v>-92.33199999999999</v>
       </c>
       <c r="Q22" s="3" t="n">
-        <v>89.75228</v>
-      </c>
-      <c r="R22" s="4" t="n">
-        <v>-71.54210999999999</v>
+        <v>90.91200000000001</v>
+      </c>
+      <c r="R22" s="6" t="n">
+        <v>-68.54000000000001</v>
       </c>
       <c r="S22" s="6" t="n">
-        <v>-66.55354</v>
+        <v>-60.174</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>47.30559</v>
-      </c>
-      <c r="U22" t="n">
-        <v>12.14545</v>
+        <v>57.898</v>
+      </c>
+      <c r="U22" s="5" t="n">
+        <v>44.678</v>
       </c>
       <c r="V22" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W22" s="3" t="n">
-        <v>93.03694</v>
+        <v>92.999</v>
       </c>
       <c r="X22" s="3" t="n">
-        <v>95.76972000000001</v>
+        <v>96.634</v>
       </c>
     </row>
     <row r="23">
@@ -2190,73 +2190,73 @@
         </is>
       </c>
       <c r="B23" s="3" t="n">
-        <v>74.81741</v>
+        <v>87.69799999999999</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>69.44109</v>
+        <v>69.996</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>87.2256</v>
+        <v>86.401</v>
       </c>
       <c r="E23" s="4" t="n">
-        <v>-78.37797999999999</v>
+        <v>-86.334</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>30.12534</v>
+        <v>48.464</v>
       </c>
       <c r="G23" s="3" t="n">
-        <v>80.75467</v>
+        <v>80.687</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>51.84441</v>
-      </c>
-      <c r="I23" t="n">
-        <v>17.50707</v>
+        <v>37.5</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>-0.8090000000000001</v>
       </c>
       <c r="J23" s="3" t="n">
-        <v>79.34844</v>
+        <v>75.884</v>
       </c>
       <c r="K23" s="3" t="n">
-        <v>81.08313</v>
+        <v>83.29000000000001</v>
       </c>
       <c r="L23" t="n">
-        <v>-16.73647</v>
+        <v>-24.687</v>
       </c>
       <c r="M23" s="3" t="n">
-        <v>82.2101</v>
+        <v>80.381</v>
       </c>
       <c r="N23" s="4" t="n">
-        <v>-83.19552</v>
+        <v>-79.55500000000001</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>-62.04709</v>
+        <v>-53.025</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>-84.91061000000001</v>
+        <v>-84.10899999999999</v>
       </c>
       <c r="Q23" s="3" t="n">
-        <v>87.49069</v>
+        <v>86.01300000000001</v>
       </c>
       <c r="R23" s="6" t="n">
-        <v>-56.46191</v>
+        <v>-57.635</v>
       </c>
       <c r="S23" s="6" t="n">
-        <v>-46.73886</v>
+        <v>-43.274</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>52.99279</v>
-      </c>
-      <c r="U23" t="n">
-        <v>29.53274</v>
+        <v>66.444</v>
+      </c>
+      <c r="U23" s="5" t="n">
+        <v>60.509</v>
       </c>
       <c r="V23" s="3" t="n">
-        <v>93.03694</v>
+        <v>92.999</v>
       </c>
       <c r="W23" s="2" t="n">
         <v>1</v>
       </c>
       <c r="X23" s="3" t="n">
-        <v>95.07398999999999</v>
+        <v>95.79300000000001</v>
       </c>
     </row>
     <row r="24">
@@ -2266,70 +2266,70 @@
         </is>
       </c>
       <c r="B24" s="3" t="n">
-        <v>76.67726</v>
+        <v>88.01900000000001</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>69.71434000000001</v>
+        <v>69.73699999999999</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>93.07511</v>
+        <v>91.792</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>-72.98394999999999</v>
+        <v>-81.142</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>42.22588</v>
+        <v>58.549</v>
       </c>
       <c r="G24" s="3" t="n">
-        <v>84.67695999999999</v>
+        <v>84.684</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>64.62956</v>
-      </c>
-      <c r="I24" t="n">
-        <v>24.5534</v>
+        <v>51.029</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>5.848</v>
       </c>
       <c r="J24" s="3" t="n">
-        <v>88.88168</v>
+        <v>85.47799999999999</v>
       </c>
       <c r="K24" s="3" t="n">
-        <v>79.95898</v>
+        <v>82.249</v>
       </c>
       <c r="L24" t="n">
-        <v>-17.969</v>
+        <v>-26.332</v>
       </c>
       <c r="M24" s="3" t="n">
-        <v>90.41759999999999</v>
+        <v>88.375</v>
       </c>
       <c r="N24" s="4" t="n">
-        <v>-90.60675999999999</v>
-      </c>
-      <c r="O24" s="4" t="n">
-        <v>-75.41989</v>
+        <v>-88.273</v>
+      </c>
+      <c r="O24" s="6" t="n">
+        <v>-66.45699999999999</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>-93.16691</v>
+        <v>-92.117</v>
       </c>
       <c r="Q24" s="3" t="n">
-        <v>92.61414000000001</v>
+        <v>90.82299999999999</v>
       </c>
       <c r="R24" s="6" t="n">
-        <v>-64.37752999999999</v>
+        <v>-66.12</v>
       </c>
       <c r="S24" s="6" t="n">
-        <v>-57.10786</v>
+        <v>-55.012</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>56.50294</v>
-      </c>
-      <c r="U24" t="n">
-        <v>24.20536</v>
+        <v>67.842</v>
+      </c>
+      <c r="U24" s="5" t="n">
+        <v>54.619</v>
       </c>
       <c r="V24" s="3" t="n">
-        <v>95.76972000000001</v>
+        <v>96.634</v>
       </c>
       <c r="W24" s="3" t="n">
-        <v>95.07398999999999</v>
+        <v>95.79300000000001</v>
       </c>
       <c r="X24" s="2" t="n">
         <v>1</v>
@@ -2481,70 +2481,70 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="n">
-        <v>-31.85768</v>
+        <v>-32.046</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>82.08020999999999</v>
+        <v>81.794</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>-81.52273</v>
+        <v>-82.645</v>
       </c>
       <c r="F2" t="n">
-        <v>-12.66693</v>
+        <v>-14.674</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>75.76906</v>
+        <v>75.53400000000001</v>
       </c>
       <c r="H2" s="5" t="n">
-        <v>58.86597</v>
+        <v>58.983</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>-79.90499</v>
+        <v>-79.986</v>
       </c>
       <c r="J2" t="n">
-        <v>-24.49779</v>
+        <v>-26.272</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>-5.31217</v>
+        <v>-4.558</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>-79.04825</v>
+        <v>-79.011</v>
       </c>
       <c r="M2" s="6" t="n">
-        <v>-54.2967</v>
+        <v>-54.782</v>
       </c>
       <c r="N2" t="n">
-        <v>18.61657</v>
+        <v>19.055</v>
       </c>
       <c r="O2" s="5" t="n">
-        <v>53.94561</v>
+        <v>54.871</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>-79.38325</v>
+        <v>-79.43000000000001</v>
       </c>
       <c r="Q2" s="3" t="n">
-        <v>77.6784</v>
+        <v>77.483</v>
       </c>
       <c r="R2" s="6" t="n">
-        <v>-35.43347</v>
+        <v>-36.957</v>
       </c>
       <c r="S2" t="n">
-        <v>-14.25863</v>
+        <v>-15.467</v>
       </c>
       <c r="T2" s="5" t="n">
-        <v>46.87377</v>
+        <v>47.63</v>
       </c>
       <c r="U2" s="5" t="n">
-        <v>56.47766</v>
+        <v>57.705</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>-6.47697</v>
+        <v>-7.277</v>
       </c>
       <c r="W2" s="6" t="n">
-        <v>-63.23808</v>
+        <v>-63.541</v>
       </c>
       <c r="X2" t="n">
-        <v>29.09881</v>
+        <v>27.912</v>
       </c>
     </row>
     <row r="3">
@@ -2554,73 +2554,73 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>-31.85768</v>
+        <v>-32.046</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>11.41796</v>
+        <v>11.672</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.92435</v>
+        <v>0.021</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>-44.68494</v>
+        <v>-42.748</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>-39.78915</v>
+        <v>-40.681</v>
       </c>
       <c r="H3" s="6" t="n">
-        <v>-67.73598</v>
+        <v>-67.78100000000001</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>72.15810999999999</v>
+        <v>72.90600000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>11.09977</v>
+        <v>14.299</v>
       </c>
       <c r="K3" s="5" t="n">
-        <v>51.21711</v>
+        <v>50.008</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>76.09307</v>
+        <v>76.523</v>
       </c>
       <c r="M3" s="5" t="n">
-        <v>50.07844</v>
+        <v>51.618</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>-70.63826</v>
+        <v>-70.839</v>
       </c>
       <c r="O3" t="n">
-        <v>-26.63285</v>
+        <v>-29.342</v>
       </c>
       <c r="P3" s="3" t="n">
-        <v>77.35030999999999</v>
+        <v>77.33799999999999</v>
       </c>
       <c r="Q3" t="n">
-        <v>-13.04224</v>
-      </c>
-      <c r="R3" t="n">
-        <v>-11.89825</v>
+        <v>-12.84</v>
+      </c>
+      <c r="R3" s="2" t="n">
+        <v>-10.058</v>
       </c>
       <c r="S3" t="n">
-        <v>-15.37418</v>
-      </c>
-      <c r="T3" t="n">
-        <v>-29.24513</v>
+        <v>-13.368</v>
+      </c>
+      <c r="T3" s="6" t="n">
+        <v>-30.298</v>
       </c>
       <c r="U3" t="n">
-        <v>-26.65093</v>
+        <v>-28.172</v>
       </c>
       <c r="V3" s="5" t="n">
-        <v>60.11873</v>
+        <v>60.621</v>
       </c>
       <c r="W3" s="3" t="n">
-        <v>71.67400000000001</v>
+        <v>72.729</v>
       </c>
       <c r="X3" s="5" t="n">
-        <v>54.7979</v>
+        <v>55.353</v>
       </c>
     </row>
     <row r="4">
@@ -2630,73 +2630,73 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>82.08020999999999</v>
+        <v>81.794</v>
       </c>
       <c r="C4" t="n">
-        <v>11.41796</v>
+        <v>11.672</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>-74.76734999999999</v>
+        <v>-74.51900000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>-24.61146</v>
+        <v>-24.954</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>56.03328</v>
+        <v>54.682</v>
       </c>
       <c r="H4" t="n">
-        <v>29.1609</v>
+        <v>28.905</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>-43.33175</v>
+        <v>-42.457</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>7.26691</v>
+        <v>7.768</v>
       </c>
       <c r="K4" t="n">
-        <v>14.89315</v>
+        <v>14.83</v>
       </c>
       <c r="L4" s="6" t="n">
-        <v>-41.72616</v>
+        <v>-40.907</v>
       </c>
       <c r="M4" t="n">
-        <v>-12.1193</v>
+        <v>-11.337</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>-40.83539</v>
+        <v>-40.884</v>
       </c>
       <c r="O4" t="n">
-        <v>19.96571</v>
+        <v>18.997</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>-54.10392</v>
+        <v>-53.905</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>80.23514</v>
+        <v>80.236</v>
       </c>
       <c r="R4" t="n">
-        <v>-18.48022</v>
+        <v>-18.544</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>3.05285</v>
+        <v>3.343</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>41.51081</v>
+        <v>41.793</v>
       </c>
       <c r="U4" s="5" t="n">
-        <v>48.70036</v>
+        <v>49.137</v>
       </c>
       <c r="V4" s="5" t="n">
-        <v>31.0746</v>
+        <v>31.113</v>
       </c>
       <c r="W4" t="n">
-        <v>-19.93905</v>
+        <v>-19.044</v>
       </c>
       <c r="X4" s="5" t="n">
-        <v>53.62212</v>
+        <v>53.417</v>
       </c>
     </row>
     <row r="5">
@@ -2706,73 +2706,73 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>-81.52273</v>
+        <v>-82.645</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-1.92435</v>
+        <v>0.021</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>-74.76734999999999</v>
+        <v>-74.51900000000001</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>67.75087000000001</v>
+        <v>67.795</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-60.05624</v>
+        <v>-61.283</v>
       </c>
       <c r="H5" t="n">
-        <v>-27.43218</v>
+        <v>-29.571</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>67.81892000000001</v>
+        <v>68.44799999999999</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>60.77362</v>
+        <v>60.671</v>
       </c>
       <c r="K5" t="n">
-        <v>-21.04261</v>
+        <v>-20.42</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>60.47413</v>
+        <v>61.521</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>62.34536</v>
+        <v>62.614</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>-1.43471</v>
+        <v>-3.702</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>-75.48291</v>
+        <v>-75.17400000000001</v>
       </c>
       <c r="P5" s="5" t="n">
-        <v>46.1077</v>
+        <v>47.589</v>
       </c>
       <c r="Q5" s="6" t="n">
-        <v>-63.36503</v>
+        <v>-63.281</v>
       </c>
       <c r="R5" s="5" t="n">
-        <v>68.98354999999999</v>
+        <v>68.61499999999999</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>42.27361</v>
+        <v>42.015</v>
       </c>
       <c r="T5" s="6" t="n">
-        <v>-41.7966</v>
+        <v>-40.756</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>-54.95784</v>
+        <v>-54.114</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>-10.06595</v>
+        <v>-7.893</v>
       </c>
       <c r="W5" s="5" t="n">
-        <v>52.27758</v>
+        <v>52.776</v>
       </c>
       <c r="X5" s="6" t="n">
-        <v>-46.93475</v>
+        <v>-44.441</v>
       </c>
     </row>
     <row r="6">
@@ -2782,73 +2782,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12.66693</v>
+        <v>-14.674</v>
       </c>
       <c r="C6" s="6" t="n">
-        <v>-44.68494</v>
+        <v>-42.748</v>
       </c>
       <c r="D6" t="n">
-        <v>-24.61146</v>
+        <v>-24.954</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>67.75087000000001</v>
+        <v>67.795</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>-6.62928</v>
+        <v>-9.034000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>28.08006</v>
+        <v>25.374</v>
       </c>
       <c r="I6" t="n">
-        <v>13.99496</v>
+        <v>15.137</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>72.09545</v>
+        <v>71.377</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>-43.17978</v>
+        <v>-42.228</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.55798</v>
+        <v>4.293</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>36.97309</v>
+        <v>37.612</v>
       </c>
       <c r="N6" t="n">
-        <v>22.48692</v>
+        <v>19.716</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>-60.0593</v>
+        <v>-59.702</v>
       </c>
       <c r="P6" t="n">
-        <v>-22.16393</v>
+        <v>-20.412</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>-10.18301</v>
+        <v>-10.346</v>
       </c>
       <c r="R6" s="3" t="n">
-        <v>72.67054</v>
+        <v>71.804</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>54.00795</v>
-      </c>
-      <c r="T6" t="n">
-        <v>-12.08956</v>
+        <v>53.322</v>
+      </c>
+      <c r="T6" s="2" t="n">
+        <v>-9.5</v>
       </c>
       <c r="U6" t="n">
-        <v>-22.41006</v>
+        <v>-19.79</v>
       </c>
       <c r="V6" t="n">
-        <v>-26.25595</v>
+        <v>-24.174</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>8.321709999999999</v>
+        <v>8.861000000000001</v>
       </c>
       <c r="X6" s="6" t="n">
-        <v>-44.23385</v>
+        <v>-42.451</v>
       </c>
     </row>
     <row r="7">
@@ -2858,73 +2858,73 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>75.76906</v>
+        <v>75.53400000000001</v>
       </c>
       <c r="C7" s="6" t="n">
-        <v>-39.78915</v>
+        <v>-40.681</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>56.03328</v>
+        <v>54.682</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-60.05624</v>
+        <v>-61.283</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-6.62928</v>
+        <v>-9.034000000000001</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>64.77482000000001</v>
+        <v>65.229</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>-70.83056999999999</v>
+        <v>-71.626</v>
       </c>
       <c r="J7" t="n">
-        <v>-23.50735</v>
+        <v>-26.797</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>9.827640000000001</v>
+        <v>10.809</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>-73.71850999999999</v>
+        <v>-74.31699999999999</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>-57.23791</v>
+        <v>-59.002</v>
       </c>
       <c r="N7" t="n">
-        <v>24.57009</v>
+        <v>26.371</v>
       </c>
       <c r="O7" s="5" t="n">
-        <v>64.11318</v>
+        <v>66.224</v>
       </c>
       <c r="P7" t="n">
-        <v>-69.26866</v>
+        <v>-69.218</v>
       </c>
       <c r="Q7" s="5" t="n">
-        <v>54.12395</v>
-      </c>
-      <c r="R7" t="n">
-        <v>-29.75017</v>
+        <v>53.026</v>
+      </c>
+      <c r="R7" s="6" t="n">
+        <v>-31.11</v>
       </c>
       <c r="S7" t="n">
-        <v>-21.9609</v>
+        <v>-23.732</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>45.5423</v>
+        <v>45.379</v>
       </c>
       <c r="U7" s="5" t="n">
-        <v>54.88522</v>
+        <v>55.213</v>
       </c>
       <c r="V7" t="n">
-        <v>-19.70659</v>
+        <v>-21.952</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>-63.83451</v>
+        <v>-65.31399999999999</v>
       </c>
       <c r="X7" t="n">
-        <v>16.87001</v>
+        <v>13.783</v>
       </c>
     </row>
     <row r="8">
@@ -2934,73 +2934,73 @@
         </is>
       </c>
       <c r="B8" s="5" t="n">
-        <v>58.86597</v>
+        <v>58.983</v>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-67.73598</v>
+        <v>-67.78100000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>29.1609</v>
+        <v>28.905</v>
       </c>
       <c r="E8" t="n">
-        <v>-27.43218</v>
+        <v>-29.571</v>
       </c>
       <c r="F8" t="n">
-        <v>28.08006</v>
+        <v>25.374</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>64.77482000000001</v>
+        <v>65.229</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="I8" s="6" t="n">
-        <v>-68.75758999999999</v>
+      <c r="I8" t="n">
+        <v>-69.648</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>-6.81008</v>
-      </c>
-      <c r="K8" t="n">
-        <v>-69.44353</v>
+        <v>-10.256</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-68.295</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>-82.35827</v>
+        <v>-82.794</v>
       </c>
       <c r="M8" s="6" t="n">
-        <v>-65.95457</v>
+        <v>-67.342</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>44.01056</v>
+        <v>44.338</v>
       </c>
       <c r="O8" s="5" t="n">
-        <v>34.69455</v>
+        <v>37.425</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>-75.84462000000001</v>
+        <v>-75.83199999999999</v>
       </c>
       <c r="Q8" t="n">
-        <v>23.45824</v>
+        <v>23.296</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>-3.81133</v>
+        <v>-6.118</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>-4.88404</v>
+        <v>-7.124</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>45.70692</v>
+        <v>47.207</v>
       </c>
       <c r="U8" s="5" t="n">
-        <v>48.83837</v>
+        <v>50.948</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>-34.47838</v>
+        <v>-35.244</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>-62.74791</v>
+        <v>-64.096</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>-3.80466</v>
+        <v>-4.866</v>
       </c>
     </row>
     <row r="9">
@@ -3010,73 +3010,73 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>-79.90499</v>
+        <v>-79.986</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>72.15810999999999</v>
+        <v>72.90600000000001</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-43.33175</v>
+        <v>-42.457</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>67.81892000000001</v>
+        <v>68.44799999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>13.99496</v>
+        <v>15.137</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>-70.83056999999999</v>
-      </c>
-      <c r="H9" s="6" t="n">
-        <v>-68.75758999999999</v>
+        <v>-71.626</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-69.648</v>
       </c>
       <c r="I9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>50.28671</v>
+        <v>51.983</v>
       </c>
       <c r="K9" t="n">
-        <v>23.03898</v>
+        <v>22.446</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>97.80517</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v>80.00503</v>
+        <v>80.51300000000001</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>-53.06313</v>
+        <v>-54.337</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>-71.88104</v>
+        <v>-72.88</v>
       </c>
       <c r="P9" s="3" t="n">
-        <v>88.74875</v>
+        <v>88.92700000000001</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>-53.3472</v>
+        <v>-52.561</v>
       </c>
       <c r="R9" s="5" t="n">
-        <v>38.8744</v>
+        <v>39.461</v>
       </c>
       <c r="S9" t="n">
-        <v>17.91192</v>
+        <v>18.943</v>
       </c>
       <c r="T9" s="6" t="n">
-        <v>-50.5305</v>
+        <v>-50.041</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>-57.74711</v>
+        <v>-57.642</v>
       </c>
       <c r="V9" s="5" t="n">
-        <v>37.12607</v>
+        <v>38.711</v>
       </c>
       <c r="W9" s="3" t="n">
-        <v>88.86960000000001</v>
+        <v>89.127</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>7.83613</v>
+        <v>9.999000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -3086,73 +3086,73 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-24.49779</v>
+        <v>-26.272</v>
       </c>
       <c r="C10" t="n">
-        <v>11.09977</v>
+        <v>14.299</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>7.26691</v>
+        <v>7.768</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>60.77362</v>
+        <v>60.671</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>72.09545</v>
+        <v>71.377</v>
       </c>
       <c r="G10" t="n">
-        <v>-23.50735</v>
+        <v>-26.797</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-6.81008</v>
+        <v>-10.256</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>50.28671</v>
+        <v>51.983</v>
       </c>
       <c r="J10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>-13.46146</v>
+        <v>-12.536</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>41.26194</v>
+        <v>43.563</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>79.47069999999999</v>
+        <v>80.431</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>-51.30217</v>
+        <v>-54.581</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>-89.63768</v>
+        <v>-89.907</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>4.80917</v>
+        <v>7.168</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>1.01018</v>
+        <v>1.265</v>
       </c>
       <c r="R10" s="3" t="n">
-        <v>81.1696</v>
+        <v>80.104</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>67.24487000000001</v>
+        <v>66.893</v>
       </c>
       <c r="T10" t="n">
-        <v>-13.17327</v>
+        <v>-11.154</v>
       </c>
       <c r="U10" t="n">
-        <v>-24.36785</v>
+        <v>-22.396</v>
       </c>
       <c r="V10" t="n">
-        <v>22.36597</v>
+        <v>25.643</v>
       </c>
       <c r="W10" s="5" t="n">
-        <v>54.8621</v>
+        <v>56.422</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>-6.23964</v>
+        <v>-2.58</v>
       </c>
     </row>
     <row r="11">
@@ -3162,73 +3162,73 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-5.31217</v>
+        <v>-4.558</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>51.21711</v>
+        <v>50.008</v>
       </c>
       <c r="D11" t="n">
-        <v>14.89315</v>
+        <v>14.83</v>
       </c>
       <c r="E11" t="n">
-        <v>-21.04261</v>
+        <v>-20.42</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-43.17978</v>
+        <v>-42.228</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>9.827640000000001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-69.44353</v>
+        <v>10.809</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-68.295</v>
       </c>
       <c r="I11" t="n">
-        <v>23.03898</v>
+        <v>22.446</v>
       </c>
       <c r="J11" t="n">
-        <v>-13.46146</v>
+        <v>-12.536</v>
       </c>
       <c r="K11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>38.05383</v>
+        <v>37.072</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>31.98141</v>
+        <v>31.347</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>-34.36176</v>
+        <v>-32.8</v>
       </c>
       <c r="O11" t="n">
-        <v>15.35422</v>
+        <v>14.858</v>
       </c>
       <c r="P11" s="5" t="n">
-        <v>33.87162</v>
+        <v>32.984</v>
       </c>
       <c r="Q11" t="n">
-        <v>20.35806</v>
+        <v>20.412</v>
       </c>
       <c r="R11" t="n">
-        <v>-23.44401</v>
+        <v>-22.274</v>
       </c>
       <c r="S11" t="n">
-        <v>-14.62907</v>
+        <v>-13.795</v>
       </c>
       <c r="T11" t="n">
-        <v>-16.63011</v>
+        <v>-18.147</v>
       </c>
       <c r="U11" t="n">
-        <v>-11.86126</v>
+        <v>-13.541</v>
       </c>
       <c r="V11" t="n">
-        <v>26.78836</v>
+        <v>25.411</v>
       </c>
       <c r="W11" t="n">
-        <v>21.83865</v>
+        <v>21.282</v>
       </c>
       <c r="X11" t="n">
-        <v>21.27868</v>
+        <v>20.009</v>
       </c>
     </row>
     <row r="12">
@@ -3238,73 +3238,73 @@
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>-79.04825</v>
+        <v>-79.011</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>76.09307</v>
+        <v>76.523</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>-41.72616</v>
+        <v>-40.907</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>60.47413</v>
+        <v>61.521</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2.55798</v>
+        <v>4.293</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>-73.71850999999999</v>
+        <v>-74.31699999999999</v>
       </c>
       <c r="H12" s="4" t="n">
-        <v>-82.35827</v>
+        <v>-82.794</v>
       </c>
       <c r="I12" s="3" t="n">
-        <v>97.80517</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>41.26194</v>
+        <v>43.563</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>38.05383</v>
+        <v>37.072</v>
       </c>
       <c r="L12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M12" s="3" t="n">
-        <v>81.42361</v>
+        <v>82.054</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>-54.50439</v>
+        <v>-55.484</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>-66.03713</v>
+        <v>-67.521</v>
       </c>
       <c r="P12" s="3" t="n">
-        <v>91.02401</v>
+        <v>90.979</v>
       </c>
       <c r="Q12" s="6" t="n">
-        <v>-48.20033</v>
+        <v>-47.495</v>
       </c>
       <c r="R12" s="5" t="n">
-        <v>31.24656</v>
+        <v>32.357</v>
       </c>
       <c r="S12" t="n">
-        <v>15.15896</v>
+        <v>16.591</v>
       </c>
       <c r="T12" s="6" t="n">
-        <v>-52.59774</v>
+        <v>-52.521</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>-59.04861</v>
+        <v>-59.439</v>
       </c>
       <c r="V12" s="5" t="n">
-        <v>39.069</v>
+        <v>40.439</v>
       </c>
       <c r="W12" s="3" t="n">
-        <v>87.59119</v>
+        <v>88.024</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>7.77887</v>
+        <v>9.755000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -3314,73 +3314,73 @@
         </is>
       </c>
       <c r="B13" s="6" t="n">
-        <v>-54.2967</v>
+        <v>-54.782</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>50.07844</v>
+        <v>51.618</v>
       </c>
       <c r="D13" t="n">
-        <v>-12.1193</v>
+        <v>-11.337</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>62.34536</v>
+        <v>62.614</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>36.97309</v>
+        <v>37.612</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>-57.23791</v>
+        <v>-59.002</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-65.95457</v>
+        <v>-67.342</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>80.00503</v>
+        <v>80.51300000000001</v>
       </c>
       <c r="J13" s="3" t="n">
-        <v>79.47069999999999</v>
+        <v>80.431</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>31.98141</v>
+        <v>31.347</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>81.42361</v>
+        <v>82.054</v>
       </c>
       <c r="M13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>-65.72041</v>
+        <v>-67.351</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>-88.68196</v>
+        <v>-89.21299999999999</v>
       </c>
       <c r="P13" s="5" t="n">
-        <v>50.09637</v>
+        <v>50.946</v>
       </c>
       <c r="Q13" t="n">
-        <v>-13.68849</v>
+        <v>-13.142</v>
       </c>
       <c r="R13" s="5" t="n">
-        <v>63.16819</v>
+        <v>62.865</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>53.1421</v>
+        <v>53.476</v>
       </c>
       <c r="T13" s="6" t="n">
-        <v>-37.89277</v>
+        <v>-36.617</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>-48.14844</v>
+        <v>-47.122</v>
       </c>
       <c r="V13" s="5" t="n">
-        <v>37.9503</v>
+        <v>40.245</v>
       </c>
       <c r="W13" s="3" t="n">
-        <v>79.90084</v>
+        <v>80.59699999999999</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>-1.67885</v>
+        <v>1.699</v>
       </c>
     </row>
     <row r="14">
@@ -3390,73 +3390,73 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18.61657</v>
+        <v>19.055</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>-70.63826</v>
+        <v>-70.839</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-40.83539</v>
+        <v>-40.884</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.43471</v>
+        <v>-3.702</v>
       </c>
       <c r="F14" t="n">
-        <v>22.48692</v>
+        <v>19.716</v>
       </c>
       <c r="G14" t="n">
-        <v>24.57009</v>
+        <v>26.371</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>44.01056</v>
+        <v>44.338</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-53.06313</v>
+        <v>-54.337</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-51.30217</v>
+        <v>-54.581</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-34.36176</v>
+        <v>-32.8</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>-54.50439</v>
+        <v>-55.484</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>-65.72041</v>
+        <v>-67.351</v>
       </c>
       <c r="N14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O14" s="5" t="n">
-        <v>51.53351</v>
+        <v>54.291</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>-33.86627</v>
+        <v>-34.088</v>
       </c>
       <c r="Q14" t="n">
-        <v>-13.99022</v>
+        <v>-14.112</v>
       </c>
       <c r="R14" t="n">
-        <v>-24.4084</v>
-      </c>
-      <c r="S14" t="n">
-        <v>-27.95426</v>
+        <v>-26.554</v>
+      </c>
+      <c r="S14" s="6" t="n">
+        <v>-30.154</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>3.49812</v>
+        <v>4.24</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>6.47752</v>
+        <v>7.688</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>-63.93826</v>
+        <v>-64.759</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>-66.55522999999999</v>
+        <v>-68.092</v>
       </c>
       <c r="X14" s="6" t="n">
-        <v>-45.69522</v>
+        <v>-46.824</v>
       </c>
     </row>
     <row r="15">
@@ -3466,73 +3466,73 @@
         </is>
       </c>
       <c r="B15" s="5" t="n">
-        <v>53.94561</v>
+        <v>54.871</v>
       </c>
       <c r="C15" t="n">
-        <v>-26.63285</v>
+        <v>-29.342</v>
       </c>
       <c r="D15" t="n">
-        <v>19.96571</v>
+        <v>18.997</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>-75.48291</v>
+        <v>-75.17400000000001</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-60.0593</v>
+        <v>-59.702</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>64.11318</v>
+        <v>66.224</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>34.69455</v>
+        <v>37.425</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>-71.88104</v>
+        <v>-72.88</v>
       </c>
       <c r="J15" s="4" t="n">
-        <v>-89.63768</v>
+        <v>-89.907</v>
       </c>
       <c r="K15" t="n">
-        <v>15.35422</v>
+        <v>14.858</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>-66.03713</v>
+        <v>-67.521</v>
       </c>
       <c r="M15" s="4" t="n">
-        <v>-88.68196</v>
+        <v>-89.21299999999999</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>51.53351</v>
+        <v>54.291</v>
       </c>
       <c r="O15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>-35.2625</v>
+        <v>-36.94</v>
       </c>
       <c r="Q15" t="n">
-        <v>24.27239</v>
+        <v>23.538</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>-78.17400000000001</v>
+        <v>-77.01300000000001</v>
       </c>
       <c r="S15" s="6" t="n">
-        <v>-63.16882</v>
-      </c>
-      <c r="T15" s="5" t="n">
-        <v>31.69582</v>
+        <v>-62.885</v>
+      </c>
+      <c r="T15" t="n">
+        <v>29.828</v>
       </c>
       <c r="U15" s="5" t="n">
-        <v>44.80528</v>
+        <v>43.056</v>
       </c>
       <c r="V15" t="n">
-        <v>-26.00239</v>
+        <v>-29.244</v>
       </c>
       <c r="W15" s="4" t="n">
-        <v>-72.3027</v>
-      </c>
-      <c r="X15" t="n">
-        <v>13.08382</v>
+        <v>-73.41800000000001</v>
+      </c>
+      <c r="X15" s="2" t="n">
+        <v>8.839</v>
       </c>
     </row>
     <row r="16">
@@ -3542,73 +3542,73 @@
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>-79.38325</v>
+        <v>-79.43000000000001</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>77.35030999999999</v>
+        <v>77.33799999999999</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>-54.10392</v>
+        <v>-53.905</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>46.1077</v>
+        <v>47.589</v>
       </c>
       <c r="F16" t="n">
-        <v>-22.16393</v>
+        <v>-20.412</v>
       </c>
       <c r="G16" t="n">
-        <v>-69.26866</v>
+        <v>-69.218</v>
       </c>
       <c r="H16" s="4" t="n">
-        <v>-75.84462000000001</v>
+        <v>-75.83199999999999</v>
       </c>
       <c r="I16" s="3" t="n">
-        <v>88.74875</v>
+        <v>88.92700000000001</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>4.80917</v>
+        <v>7.168</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>33.87162</v>
+        <v>32.984</v>
       </c>
       <c r="L16" s="3" t="n">
-        <v>91.02401</v>
+        <v>90.979</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>50.09637</v>
+        <v>50.946</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>-33.86627</v>
+        <v>-34.088</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>-35.2625</v>
+        <v>-36.94</v>
       </c>
       <c r="P16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q16" s="6" t="n">
-        <v>-62.3076</v>
+        <v>-62.185</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>1.92174</v>
+        <v>3.485</v>
       </c>
       <c r="S16" t="n">
-        <v>-14.98055</v>
+        <v>-13.521</v>
       </c>
       <c r="T16" s="6" t="n">
-        <v>-51.16241</v>
+        <v>-52.284</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>-53.56214</v>
+        <v>-55.171</v>
       </c>
       <c r="V16" s="5" t="n">
-        <v>31.0683</v>
+        <v>31.532</v>
       </c>
       <c r="W16" s="3" t="n">
-        <v>73.46975999999999</v>
+        <v>73.874</v>
       </c>
       <c r="X16" t="n">
-        <v>12.28488</v>
+        <v>12.934</v>
       </c>
     </row>
     <row r="17">
@@ -3618,73 +3618,73 @@
         </is>
       </c>
       <c r="B17" s="3" t="n">
-        <v>77.6784</v>
+        <v>77.483</v>
       </c>
       <c r="C17" t="n">
-        <v>-13.04224</v>
+        <v>-12.84</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>80.23514</v>
+        <v>80.236</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-63.36503</v>
+        <v>-63.281</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-10.18301</v>
+        <v>-10.346</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>54.12395</v>
+        <v>53.026</v>
       </c>
       <c r="H17" t="n">
-        <v>23.45824</v>
+        <v>23.296</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-53.3472</v>
+        <v>-52.561</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>1.01018</v>
+        <v>1.265</v>
       </c>
       <c r="K17" t="n">
-        <v>20.35806</v>
+        <v>20.412</v>
       </c>
       <c r="L17" s="6" t="n">
-        <v>-48.20033</v>
+        <v>-47.495</v>
       </c>
       <c r="M17" t="n">
-        <v>-13.68849</v>
+        <v>-13.142</v>
       </c>
       <c r="N17" t="n">
-        <v>-13.99022</v>
+        <v>-14.112</v>
       </c>
       <c r="O17" t="n">
-        <v>24.27239</v>
+        <v>23.538</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>-62.3076</v>
+        <v>-62.185</v>
       </c>
       <c r="Q17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>-24.49816</v>
+        <v>-24.761</v>
       </c>
       <c r="S17" t="n">
-        <v>13.32485</v>
+        <v>13.501</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>45.92815</v>
+        <v>46.272</v>
       </c>
       <c r="U17" s="5" t="n">
-        <v>48.52367</v>
+        <v>49.02</v>
       </c>
       <c r="V17" t="n">
-        <v>17.76225</v>
+        <v>17.793</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>-41.36835</v>
+        <v>-40.358</v>
       </c>
       <c r="X17" t="n">
-        <v>19.39959</v>
+        <v>19.429</v>
       </c>
     </row>
     <row r="18">
@@ -3694,73 +3694,73 @@
         </is>
       </c>
       <c r="B18" s="6" t="n">
-        <v>-35.43347</v>
-      </c>
-      <c r="C18" t="n">
-        <v>-11.89825</v>
+        <v>-36.957</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>-10.058</v>
       </c>
       <c r="D18" t="n">
-        <v>-18.48022</v>
+        <v>-18.544</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>68.98354999999999</v>
+        <v>68.61499999999999</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>72.67054</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-29.75017</v>
+        <v>71.804</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>-31.11</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-3.81133</v>
+        <v>-6.118</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>38.8744</v>
+        <v>39.461</v>
       </c>
       <c r="J18" s="3" t="n">
-        <v>81.1696</v>
+        <v>80.104</v>
       </c>
       <c r="K18" t="n">
-        <v>-23.44401</v>
+        <v>-22.274</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>31.24656</v>
+        <v>32.357</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>63.16819</v>
+        <v>62.865</v>
       </c>
       <c r="N18" t="n">
-        <v>-24.4084</v>
+        <v>-26.554</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>-78.17400000000001</v>
+        <v>-77.01300000000001</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>1.92174</v>
+        <v>3.485</v>
       </c>
       <c r="Q18" t="n">
-        <v>-24.49816</v>
+        <v>-24.761</v>
       </c>
       <c r="R18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>68.16743</v>
+        <v>67.64</v>
       </c>
       <c r="T18" t="n">
-        <v>-28.44039</v>
+        <v>-26.95</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>-38.92545</v>
+        <v>-37.453</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>-5.90202</v>
+        <v>-4.386</v>
       </c>
       <c r="W18" s="5" t="n">
-        <v>43.67504</v>
+        <v>43.612</v>
       </c>
       <c r="X18" s="6" t="n">
-        <v>-31.65061</v>
+        <v>-30.179</v>
       </c>
     </row>
     <row r="19">
@@ -3770,73 +3770,73 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-14.25863</v>
+        <v>-15.467</v>
       </c>
       <c r="C19" t="n">
-        <v>-15.37418</v>
+        <v>-13.368</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>3.05285</v>
+        <v>3.343</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>42.27361</v>
+        <v>42.015</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>54.00795</v>
+        <v>53.322</v>
       </c>
       <c r="G19" t="n">
-        <v>-21.9609</v>
+        <v>-23.732</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-4.88404</v>
+        <v>-7.124</v>
       </c>
       <c r="I19" t="n">
-        <v>17.91192</v>
+        <v>18.943</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>67.24487000000001</v>
+        <v>66.893</v>
       </c>
       <c r="K19" t="n">
-        <v>-14.62907</v>
+        <v>-13.795</v>
       </c>
       <c r="L19" t="n">
-        <v>15.15896</v>
+        <v>16.591</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>53.1421</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-27.95426</v>
+        <v>53.476</v>
+      </c>
+      <c r="N19" s="6" t="n">
+        <v>-30.154</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>-63.16882</v>
+        <v>-62.885</v>
       </c>
       <c r="P19" t="n">
-        <v>-14.98055</v>
+        <v>-13.521</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.32485</v>
+        <v>13.501</v>
       </c>
       <c r="R19" s="5" t="n">
-        <v>68.16743</v>
+        <v>67.64</v>
       </c>
       <c r="S19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>3.50913</v>
+        <v>5.153</v>
       </c>
       <c r="U19" t="n">
-        <v>-13.98569</v>
+        <v>-12.435</v>
       </c>
       <c r="V19" t="n">
-        <v>23.81164</v>
+        <v>25.605</v>
       </c>
       <c r="W19" t="n">
-        <v>18.9672</v>
+        <v>19.845</v>
       </c>
       <c r="X19" s="6" t="n">
-        <v>-39.59819</v>
+        <v>-37.313</v>
       </c>
     </row>
     <row r="20">
@@ -3846,73 +3846,73 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>46.87377</v>
-      </c>
-      <c r="C20" t="n">
-        <v>-29.24513</v>
+        <v>47.63</v>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-30.298</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>41.51081</v>
+        <v>41.793</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-41.7966</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-12.08956</v>
+        <v>-40.756</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>-9.5</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>45.5423</v>
+        <v>45.379</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>45.70692</v>
+        <v>47.207</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-50.5305</v>
+        <v>-50.041</v>
       </c>
       <c r="J20" t="n">
-        <v>-13.17327</v>
+        <v>-11.154</v>
       </c>
       <c r="K20" t="n">
-        <v>-16.63011</v>
+        <v>-18.147</v>
       </c>
       <c r="L20" s="6" t="n">
-        <v>-52.59774</v>
+        <v>-52.521</v>
       </c>
       <c r="M20" s="6" t="n">
-        <v>-37.89277</v>
+        <v>-36.617</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>3.49812</v>
-      </c>
-      <c r="O20" s="5" t="n">
-        <v>31.69582</v>
+        <v>4.24</v>
+      </c>
+      <c r="O20" t="n">
+        <v>29.828</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>-51.16241</v>
+        <v>-52.284</v>
       </c>
       <c r="Q20" s="5" t="n">
-        <v>45.92815</v>
+        <v>46.272</v>
       </c>
       <c r="R20" t="n">
-        <v>-28.44039</v>
+        <v>-26.95</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>3.50913</v>
+        <v>5.153</v>
       </c>
       <c r="T20" s="2" t="n">
         <v>1</v>
       </c>
       <c r="U20" s="3" t="n">
-        <v>97.46943</v>
+        <v>97.438</v>
       </c>
       <c r="V20" t="n">
-        <v>23.23445</v>
+        <v>22.837</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>-38.18754</v>
+        <v>-37.001</v>
       </c>
       <c r="X20" t="n">
-        <v>23.22796</v>
+        <v>22.815</v>
       </c>
     </row>
     <row r="21">
@@ -3922,73 +3922,73 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>56.47766</v>
+        <v>57.705</v>
       </c>
       <c r="C21" t="n">
-        <v>-26.65093</v>
+        <v>-28.172</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>48.70036</v>
+        <v>49.137</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-54.95784</v>
+        <v>-54.114</v>
       </c>
       <c r="F21" t="n">
-        <v>-22.41006</v>
+        <v>-19.79</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>54.88522</v>
+        <v>55.213</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>48.83837</v>
+        <v>50.948</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-57.74711</v>
+        <v>-57.642</v>
       </c>
       <c r="J21" t="n">
-        <v>-24.36785</v>
+        <v>-22.396</v>
       </c>
       <c r="K21" t="n">
-        <v>-11.86126</v>
+        <v>-13.541</v>
       </c>
       <c r="L21" s="6" t="n">
-        <v>-59.04861</v>
+        <v>-59.439</v>
       </c>
       <c r="M21" s="6" t="n">
-        <v>-48.14844</v>
+        <v>-47.122</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>6.47752</v>
+        <v>7.688</v>
       </c>
       <c r="O21" s="5" t="n">
-        <v>44.80528</v>
+        <v>43.056</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>-53.56214</v>
+        <v>-55.171</v>
       </c>
       <c r="Q21" s="5" t="n">
-        <v>48.52367</v>
+        <v>49.02</v>
       </c>
       <c r="R21" s="6" t="n">
-        <v>-38.92545</v>
+        <v>-37.453</v>
       </c>
       <c r="S21" t="n">
-        <v>-13.98569</v>
+        <v>-12.435</v>
       </c>
       <c r="T21" s="3" t="n">
-        <v>97.46943</v>
+        <v>97.438</v>
       </c>
       <c r="U21" s="2" t="n">
         <v>1</v>
       </c>
       <c r="V21" t="n">
-        <v>18.75361</v>
+        <v>18.047</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>-42.60551</v>
+        <v>-41.73</v>
       </c>
       <c r="X21" s="5" t="n">
-        <v>34.47147</v>
+        <v>33.734</v>
       </c>
     </row>
     <row r="22">
@@ -3998,73 +3998,73 @@
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-6.47697</v>
+        <v>-7.277</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>60.11873</v>
+        <v>60.621</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>31.0746</v>
+        <v>31.113</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-10.06595</v>
+        <v>-7.893</v>
       </c>
       <c r="F22" t="n">
-        <v>-26.25595</v>
+        <v>-24.174</v>
       </c>
       <c r="G22" t="n">
-        <v>-19.70659</v>
+        <v>-21.952</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>-34.47838</v>
+        <v>-35.244</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>37.12607</v>
+        <v>38.711</v>
       </c>
       <c r="J22" t="n">
-        <v>22.36597</v>
+        <v>25.643</v>
       </c>
       <c r="K22" t="n">
-        <v>26.78836</v>
+        <v>25.411</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>39.069</v>
+        <v>40.439</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>37.9503</v>
+        <v>40.245</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>-63.93826</v>
+        <v>-64.759</v>
       </c>
       <c r="O22" t="n">
-        <v>-26.00239</v>
+        <v>-29.244</v>
       </c>
       <c r="P22" s="5" t="n">
-        <v>31.0683</v>
+        <v>31.532</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.76225</v>
+        <v>17.793</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>-5.90202</v>
+        <v>-4.386</v>
       </c>
       <c r="S22" t="n">
-        <v>23.81164</v>
+        <v>25.605</v>
       </c>
       <c r="T22" t="n">
-        <v>23.23445</v>
+        <v>22.837</v>
       </c>
       <c r="U22" t="n">
-        <v>18.75361</v>
+        <v>18.047</v>
       </c>
       <c r="V22" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W22" s="5" t="n">
-        <v>56.85535</v>
+        <v>58.507</v>
       </c>
       <c r="X22" s="5" t="n">
-        <v>54.22358</v>
+        <v>55.346</v>
       </c>
     </row>
     <row r="23">
@@ -4074,73 +4074,73 @@
         </is>
       </c>
       <c r="B23" s="6" t="n">
-        <v>-63.23808</v>
+        <v>-63.541</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>71.67400000000001</v>
+        <v>72.729</v>
       </c>
       <c r="D23" t="n">
-        <v>-19.93905</v>
+        <v>-19.044</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>52.27758</v>
+        <v>52.776</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>8.321709999999999</v>
+        <v>8.861000000000001</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-63.83451</v>
+        <v>-65.31399999999999</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-62.74791</v>
+        <v>-64.096</v>
       </c>
       <c r="I23" s="3" t="n">
-        <v>88.86960000000001</v>
+        <v>89.127</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>54.8621</v>
+        <v>56.422</v>
       </c>
       <c r="K23" t="n">
-        <v>21.83865</v>
+        <v>21.282</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>87.59119</v>
+        <v>88.024</v>
       </c>
       <c r="M23" s="3" t="n">
-        <v>79.90084</v>
+        <v>80.59699999999999</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>-66.55522999999999</v>
+        <v>-68.092</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>-72.3027</v>
+        <v>-73.41800000000001</v>
       </c>
       <c r="P23" s="3" t="n">
-        <v>73.46975999999999</v>
+        <v>73.874</v>
       </c>
       <c r="Q23" s="6" t="n">
-        <v>-41.36835</v>
+        <v>-40.358</v>
       </c>
       <c r="R23" s="5" t="n">
-        <v>43.67504</v>
+        <v>43.612</v>
       </c>
       <c r="S23" t="n">
-        <v>18.9672</v>
+        <v>19.845</v>
       </c>
       <c r="T23" s="6" t="n">
-        <v>-38.18754</v>
+        <v>-37.001</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>-42.60551</v>
+        <v>-41.73</v>
       </c>
       <c r="V23" s="5" t="n">
-        <v>56.85535</v>
+        <v>58.507</v>
       </c>
       <c r="W23" s="2" t="n">
         <v>1</v>
       </c>
       <c r="X23" s="5" t="n">
-        <v>34.82796</v>
+        <v>37.048</v>
       </c>
     </row>
     <row r="24">
@@ -4150,70 +4150,70 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>29.09881</v>
+        <v>27.912</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>54.7979</v>
+        <v>55.353</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>53.62212</v>
+        <v>53.417</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>-46.93475</v>
+        <v>-44.441</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>-44.23385</v>
+        <v>-42.451</v>
       </c>
       <c r="G24" t="n">
-        <v>16.87001</v>
+        <v>13.783</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-3.80466</v>
+        <v>-4.866</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>7.83613</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>-6.23964</v>
+        <v>-2.58</v>
       </c>
       <c r="K24" t="n">
-        <v>21.27868</v>
+        <v>20.009</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>7.77887</v>
+        <v>9.755000000000001</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>-1.67885</v>
+        <v>1.699</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>-45.69522</v>
-      </c>
-      <c r="O24" t="n">
-        <v>13.08382</v>
+        <v>-46.824</v>
+      </c>
+      <c r="O24" s="2" t="n">
+        <v>8.839</v>
       </c>
       <c r="P24" t="n">
-        <v>12.28488</v>
+        <v>12.934</v>
       </c>
       <c r="Q24" t="n">
-        <v>19.39959</v>
+        <v>19.429</v>
       </c>
       <c r="R24" s="6" t="n">
-        <v>-31.65061</v>
+        <v>-30.179</v>
       </c>
       <c r="S24" s="6" t="n">
-        <v>-39.59819</v>
+        <v>-37.313</v>
       </c>
       <c r="T24" t="n">
-        <v>23.22796</v>
+        <v>22.815</v>
       </c>
       <c r="U24" s="5" t="n">
-        <v>34.47147</v>
+        <v>33.734</v>
       </c>
       <c r="V24" s="5" t="n">
-        <v>54.22358</v>
+        <v>55.346</v>
       </c>
       <c r="W24" s="5" t="n">
-        <v>34.82796</v>
+        <v>37.048</v>
       </c>
       <c r="X24" s="2" t="n">
         <v>1</v>
@@ -4365,70 +4365,70 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>43.06647</v>
+        <v>43.066</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>67.30459</v>
+        <v>67.30500000000001</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>-72.43429999999999</v>
+        <v>-72.434</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-9.349460000000001</v>
+        <v>-9.349</v>
       </c>
       <c r="G2" t="n">
-        <v>-25.0606</v>
+        <v>-25.061</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>5.68437</v>
+        <v>5.684</v>
       </c>
       <c r="I2" t="n">
-        <v>-21.75438</v>
+        <v>-21.754</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>-10.26021</v>
+        <v>-10.26</v>
       </c>
       <c r="K2" t="n">
-        <v>-21.28418</v>
+        <v>-21.284</v>
       </c>
       <c r="L2" t="n">
-        <v>-17.55996</v>
+        <v>-17.56</v>
       </c>
       <c r="M2" t="n">
-        <v>-14.81583</v>
+        <v>-14.816</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>6.28132</v>
+        <v>6.281</v>
       </c>
       <c r="O2" t="n">
-        <v>-16.98196</v>
+        <v>-16.982</v>
       </c>
       <c r="P2" t="n">
-        <v>-14.77048</v>
+        <v>-14.77</v>
       </c>
       <c r="Q2" s="5" t="n">
-        <v>64.46263</v>
+        <v>64.46299999999999</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>-3.0348</v>
+        <v>-3.035</v>
       </c>
       <c r="S2" s="5" t="n">
-        <v>52.39358</v>
+        <v>52.394</v>
       </c>
       <c r="T2" s="3" t="n">
-        <v>72.52561</v>
+        <v>72.526</v>
       </c>
       <c r="U2" s="3" t="n">
-        <v>72.51406</v>
+        <v>72.514</v>
       </c>
       <c r="V2" s="6" t="n">
-        <v>-38.22553</v>
+        <v>-38.226</v>
       </c>
       <c r="W2" s="6" t="n">
-        <v>-38.07816</v>
+        <v>-38.078</v>
       </c>
       <c r="X2" t="n">
-        <v>-26.08985</v>
+        <v>-26.09</v>
       </c>
     </row>
     <row r="3">
@@ -4438,73 +4438,73 @@
         </is>
       </c>
       <c r="B3" s="5" t="n">
-        <v>43.06647</v>
+        <v>43.066</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>53.71218</v>
+        <v>53.712</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>-41.30612</v>
+        <v>-41.306</v>
       </c>
       <c r="F3" t="n">
-        <v>-17.68463</v>
+        <v>-17.685</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.86354</v>
+        <v>3.864</v>
       </c>
       <c r="H3" t="n">
-        <v>-19.79938</v>
+        <v>-19.799</v>
       </c>
       <c r="I3" s="5" t="n">
-        <v>59.54714</v>
+        <v>59.547</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>9.3652</v>
+        <v>9.365</v>
       </c>
       <c r="K3" t="n">
-        <v>26.18196</v>
+        <v>26.182</v>
       </c>
       <c r="L3" s="5" t="n">
-        <v>48.90555</v>
+        <v>48.906</v>
       </c>
       <c r="M3" t="n">
-        <v>28.68945</v>
+        <v>28.689</v>
       </c>
       <c r="N3" t="n">
-        <v>-29.80167</v>
+        <v>-29.802</v>
       </c>
       <c r="O3" t="n">
-        <v>-11.28364</v>
+        <v>-11.284</v>
       </c>
       <c r="P3" s="5" t="n">
-        <v>60.90001</v>
+        <v>60.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>25.36419</v>
+        <v>25.364</v>
       </c>
       <c r="R3" s="6" t="n">
-        <v>-42.21633</v>
+        <v>-42.216</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>-1.92828</v>
+        <v>-1.928</v>
       </c>
       <c r="T3" s="5" t="n">
-        <v>61.19575</v>
+        <v>61.196</v>
       </c>
       <c r="U3" s="5" t="n">
-        <v>60.97076</v>
+        <v>60.971</v>
       </c>
       <c r="V3" t="n">
-        <v>-18.86598</v>
+        <v>-18.866</v>
       </c>
       <c r="W3" t="n">
         <v>-21.036</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>-7.27284</v>
+        <v>-7.273</v>
       </c>
     </row>
     <row r="4">
@@ -4514,73 +4514,73 @@
         </is>
       </c>
       <c r="B4" s="5" t="n">
-        <v>67.30459</v>
+        <v>67.30500000000001</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>53.71218</v>
+        <v>53.712</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>-50.9414</v>
+        <v>-50.941</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-8.90287</v>
+        <v>-8.903</v>
       </c>
       <c r="G4" t="n">
-        <v>19.60643</v>
+        <v>19.606</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>32.28855</v>
+        <v>32.289</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>7.52004</v>
+        <v>7.52</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>43.49816</v>
+        <v>43.498</v>
       </c>
       <c r="K4" t="n">
-        <v>-27.19526</v>
+        <v>-27.195</v>
       </c>
       <c r="L4" t="n">
-        <v>-22.25027</v>
+        <v>-22.25</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>-7.32261</v>
+        <v>-7.323</v>
       </c>
       <c r="N4" t="n">
-        <v>-69.50832</v>
+        <v>-69.508</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>-56.29625</v>
+        <v>-56.296</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>-34.14033</v>
+        <v>-34.14</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>85.20281</v>
+        <v>85.203</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>33.66139</v>
+        <v>33.661</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>62.96937</v>
+        <v>62.969</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>68.1054</v>
+        <v>68.105</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>70.13847</v>
+        <v>70.13800000000001</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>-5.63831</v>
+        <v>-5.638</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>-6.16892</v>
+        <v>-6.169</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>4.64994</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="5">
@@ -4590,73 +4590,73 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>-72.43429999999999</v>
+        <v>-72.434</v>
       </c>
       <c r="C5" s="6" t="n">
-        <v>-41.30612</v>
+        <v>-41.306</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-50.9414</v>
+        <v>-50.941</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>75.35096</v>
+        <v>75.351</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>65.32686</v>
+        <v>65.327</v>
       </c>
       <c r="H5" t="n">
-        <v>14.06561</v>
+        <v>14.066</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>48.47871</v>
+        <v>48.479</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>55.26832</v>
+        <v>55.268</v>
       </c>
       <c r="K5" t="n">
-        <v>20.1227</v>
+        <v>20.123</v>
       </c>
       <c r="L5" t="n">
-        <v>16.5899</v>
+        <v>16.59</v>
       </c>
       <c r="M5" t="n">
-        <v>22.89189</v>
+        <v>22.892</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>-0.60524</v>
+        <v>-0.605</v>
       </c>
       <c r="O5" t="n">
-        <v>-11.21629</v>
+        <v>-11.216</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.71781</v>
+        <v>1.718</v>
       </c>
       <c r="Q5" s="6" t="n">
-        <v>-52.55722</v>
+        <v>-52.557</v>
       </c>
       <c r="R5" t="n">
-        <v>15.90942</v>
+        <v>15.909</v>
       </c>
       <c r="S5" s="6" t="n">
-        <v>-60.11068</v>
+        <v>-60.111</v>
       </c>
       <c r="T5" s="6" t="n">
-        <v>-64.29944</v>
+        <v>-64.29900000000001</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>-62.03289</v>
+        <v>-62.033</v>
       </c>
       <c r="V5" s="5" t="n">
-        <v>58.72694</v>
+        <v>58.727</v>
       </c>
       <c r="W5" s="5" t="n">
-        <v>57.27435</v>
+        <v>57.274</v>
       </c>
       <c r="X5" s="5" t="n">
-        <v>46.11994</v>
+        <v>46.12</v>
       </c>
     </row>
     <row r="6">
@@ -4666,73 +4666,73 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-9.349460000000001</v>
+        <v>-9.349</v>
       </c>
       <c r="C6" t="n">
-        <v>-17.68463</v>
+        <v>-17.685</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-8.90287</v>
+        <v>-8.903</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>75.35096</v>
+        <v>75.351</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>70.82783999999999</v>
+        <v>70.828</v>
       </c>
       <c r="H6" t="n">
-        <v>24.20723</v>
+        <v>24.207</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>50.22826</v>
+        <v>50.228</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>70.61693</v>
+        <v>70.617</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>10.69978</v>
+        <v>10.7</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>8.88564</v>
+        <v>8.885999999999999</v>
       </c>
       <c r="M6" t="n">
-        <v>20.95464</v>
+        <v>20.955</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>4.40284</v>
+        <v>4.403</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>-32.93458</v>
+        <v>-32.935</v>
       </c>
       <c r="P6" t="n">
-        <v>-11.01625</v>
+        <v>-11.016</v>
       </c>
       <c r="Q6" t="n">
-        <v>-14.04712</v>
+        <v>-14.047</v>
       </c>
       <c r="R6" t="n">
-        <v>19.17446</v>
+        <v>19.174</v>
       </c>
       <c r="S6" s="6" t="n">
-        <v>-36.86386</v>
+        <v>-36.864</v>
       </c>
       <c r="T6" t="n">
-        <v>-22.60947</v>
+        <v>-22.609</v>
       </c>
       <c r="U6" t="n">
-        <v>-19.35514</v>
+        <v>-19.355</v>
       </c>
       <c r="V6" s="5" t="n">
-        <v>47.08376</v>
+        <v>47.084</v>
       </c>
       <c r="W6" s="5" t="n">
-        <v>45.04246</v>
+        <v>45.042</v>
       </c>
       <c r="X6" s="5" t="n">
-        <v>40.57326</v>
+        <v>40.573</v>
       </c>
     </row>
     <row r="7">
@@ -4742,73 +4742,73 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.0606</v>
+        <v>-25.061</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>3.86354</v>
+        <v>3.864</v>
       </c>
       <c r="D7" t="n">
-        <v>19.60643</v>
+        <v>19.606</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>65.32686</v>
+        <v>65.327</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>70.82783999999999</v>
+        <v>70.828</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>50.04472</v>
+        <v>50.045</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>61.6391</v>
+        <v>61.639</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>87.42409000000001</v>
+        <v>87.42400000000001</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>-3.20231</v>
+        <v>-3.202</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>-5.33624</v>
+        <v>-5.336</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.00086</v>
+        <v>4.001</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>-49.73875</v>
+        <v>-49.739</v>
       </c>
       <c r="O7" t="n">
-        <v>-21.52786</v>
+        <v>-21.528</v>
       </c>
       <c r="P7" t="n">
-        <v>-14.69689</v>
+        <v>-14.697</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>4.05813</v>
+        <v>4.058</v>
       </c>
       <c r="R7" s="5" t="n">
-        <v>40.90929</v>
+        <v>40.909</v>
       </c>
       <c r="S7" t="n">
-        <v>-19.18941</v>
+        <v>-19.189</v>
       </c>
       <c r="T7" t="n">
-        <v>-18.17756</v>
+        <v>-18.178</v>
       </c>
       <c r="U7" t="n">
-        <v>-13.45361</v>
+        <v>-13.454</v>
       </c>
       <c r="V7" s="3" t="n">
-        <v>72.64440999999999</v>
+        <v>72.64400000000001</v>
       </c>
       <c r="W7" s="5" t="n">
-        <v>69.93471</v>
+        <v>69.935</v>
       </c>
       <c r="X7" s="5" t="n">
-        <v>69.06755</v>
+        <v>69.068</v>
       </c>
     </row>
     <row r="8">
@@ -4818,73 +4818,73 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>5.68437</v>
+        <v>5.684</v>
       </c>
       <c r="C8" t="n">
-        <v>-19.79938</v>
+        <v>-19.799</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>32.28855</v>
+        <v>32.289</v>
       </c>
       <c r="E8" t="n">
-        <v>14.06561</v>
+        <v>14.066</v>
       </c>
       <c r="F8" t="n">
-        <v>24.20723</v>
+        <v>24.207</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>50.04472</v>
+        <v>50.045</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>-7.39461</v>
+        <v>-7.395</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>44.72667</v>
+        <v>44.727</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>-87.96422</v>
+        <v>-87.964</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>-82.42012</v>
+        <v>-82.42</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>-79.65685999999999</v>
+        <v>-79.657</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>-38.36586</v>
+        <v>-38.366</v>
       </c>
       <c r="O8" t="n">
-        <v>-12.75944</v>
+        <v>-12.759</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>-53.80746</v>
+        <v>-53.807</v>
       </c>
       <c r="Q8" s="5" t="n">
-        <v>39.4889</v>
+        <v>39.489</v>
       </c>
       <c r="R8" s="5" t="n">
-        <v>63.75776</v>
+        <v>63.758</v>
       </c>
       <c r="S8" t="n">
-        <v>22.85121</v>
+        <v>22.851</v>
       </c>
       <c r="T8" t="n">
-        <v>-18.64831</v>
+        <v>-18.648</v>
       </c>
       <c r="U8" t="n">
-        <v>-14.0924</v>
+        <v>-14.092</v>
       </c>
       <c r="V8" s="3" t="n">
-        <v>72.87056</v>
+        <v>72.871</v>
       </c>
       <c r="W8" s="3" t="n">
-        <v>73.12794</v>
+        <v>73.128</v>
       </c>
       <c r="X8" s="3" t="n">
-        <v>74.03353</v>
+        <v>74.03400000000001</v>
       </c>
     </row>
     <row r="9">
@@ -4894,73 +4894,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-21.75438</v>
+        <v>-21.754</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>59.54714</v>
+        <v>59.547</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>7.52004</v>
+        <v>7.52</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>48.47871</v>
+        <v>48.479</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>50.22826</v>
+        <v>50.228</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>61.6391</v>
+        <v>61.639</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-7.39461</v>
+        <v>-7.395</v>
       </c>
       <c r="I9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>58.6047</v>
+        <v>58.605</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>43.9272</v>
+        <v>43.927</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>62.21764</v>
+        <v>62.218</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>49.15345</v>
+        <v>49.153</v>
       </c>
       <c r="N9" t="n">
-        <v>-29.58903</v>
+        <v>-29.589</v>
       </c>
       <c r="O9" t="n">
-        <v>-22.01282</v>
+        <v>-22.013</v>
       </c>
       <c r="P9" s="5" t="n">
-        <v>59.19622</v>
+        <v>59.196</v>
       </c>
       <c r="Q9" t="n">
-        <v>-21.32133</v>
+        <v>-21.321</v>
       </c>
       <c r="R9" t="n">
-        <v>-26.66455</v>
+        <v>-26.665</v>
       </c>
       <c r="S9" s="6" t="n">
-        <v>-53.76651</v>
+        <v>-53.767</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>3.05721</v>
+        <v>3.057</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>4.86851</v>
+        <v>4.869</v>
       </c>
       <c r="V9" s="5" t="n">
-        <v>32.36246</v>
+        <v>32.362</v>
       </c>
       <c r="W9" t="n">
-        <v>28.97795</v>
+        <v>28.978</v>
       </c>
       <c r="X9" s="5" t="n">
-        <v>32.6452</v>
+        <v>32.645</v>
       </c>
     </row>
     <row r="10">
@@ -4970,73 +4970,73 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-10.26021</v>
+        <v>-10.26</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>9.3652</v>
+        <v>9.365</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>43.49816</v>
+        <v>43.498</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>55.26832</v>
+        <v>55.268</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>70.61693</v>
+        <v>70.617</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>87.42409000000001</v>
+        <v>87.42400000000001</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>44.72667</v>
+        <v>44.727</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>58.6047</v>
+        <v>58.605</v>
       </c>
       <c r="J10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>-3.82072</v>
+        <v>-3.821</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>-2.91416</v>
+        <v>-2.914</v>
       </c>
       <c r="M10" t="n">
         <v>18.226</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>-67.57532999999999</v>
+        <v>-67.575</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>-66.14960000000001</v>
+        <v>-66.15000000000001</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>-30.55816</v>
+        <v>-30.558</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.49729</v>
+        <v>27.497</v>
       </c>
       <c r="R10" s="5" t="n">
-        <v>48.25596</v>
+        <v>48.256</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>-2.05046</v>
+        <v>-2.05</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>-0.47638</v>
+        <v>-0.476</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>3.88942</v>
+        <v>3.889</v>
       </c>
       <c r="V10" s="5" t="n">
-        <v>55.1699</v>
+        <v>55.17</v>
       </c>
       <c r="W10" s="5" t="n">
-        <v>53.07327</v>
+        <v>53.073</v>
       </c>
       <c r="X10" s="5" t="n">
-        <v>52.17562</v>
+        <v>52.176</v>
       </c>
     </row>
     <row r="11">
@@ -5046,73 +5046,73 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-21.28418</v>
+        <v>-21.284</v>
       </c>
       <c r="C11" t="n">
-        <v>26.18196</v>
+        <v>26.182</v>
       </c>
       <c r="D11" t="n">
-        <v>-27.19526</v>
+        <v>-27.195</v>
       </c>
       <c r="E11" t="n">
-        <v>20.1227</v>
+        <v>20.123</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>10.69978</v>
+        <v>10.7</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>-3.20231</v>
+        <v>-3.202</v>
       </c>
       <c r="H11" s="4" t="n">
-        <v>-87.96422</v>
+        <v>-87.964</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>43.9272</v>
+        <v>43.927</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>-3.82072</v>
+        <v>-3.821</v>
       </c>
       <c r="K11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>93.44646</v>
+        <v>93.446</v>
       </c>
       <c r="M11" s="3" t="n">
-        <v>94.33765</v>
+        <v>94.33799999999999</v>
       </c>
       <c r="N11" t="n">
-        <v>16.99859</v>
+        <v>16.999</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>2.78819</v>
+        <v>2.788</v>
       </c>
       <c r="P11" s="5" t="n">
-        <v>56.06886</v>
+        <v>56.069</v>
       </c>
       <c r="Q11" s="6" t="n">
-        <v>-44.3925</v>
+        <v>-44.393</v>
       </c>
       <c r="R11" s="6" t="n">
-        <v>-52.68317</v>
+        <v>-52.683</v>
       </c>
       <c r="S11" s="6" t="n">
-        <v>-38.48145</v>
+        <v>-38.481</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>10.83927</v>
+        <v>10.839</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>8.12894</v>
+        <v>8.129</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>-44.02255</v>
+        <v>-44.023</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>-45.71336</v>
+        <v>-45.713</v>
       </c>
       <c r="X11" s="6" t="n">
-        <v>-47.2251</v>
+        <v>-47.225</v>
       </c>
     </row>
     <row r="12">
@@ -5122,73 +5122,73 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-17.55996</v>
+        <v>-17.56</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>48.90555</v>
+        <v>48.906</v>
       </c>
       <c r="D12" t="n">
-        <v>-22.25027</v>
+        <v>-22.25</v>
       </c>
       <c r="E12" t="n">
-        <v>16.5899</v>
+        <v>16.59</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>8.88564</v>
+        <v>8.885999999999999</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>-5.33624</v>
+        <v>-5.336</v>
       </c>
       <c r="H12" s="4" t="n">
-        <v>-82.42012</v>
+        <v>-82.42</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>62.21764</v>
+        <v>62.218</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>-2.91416</v>
+        <v>-2.914</v>
       </c>
       <c r="K12" s="3" t="n">
-        <v>93.44646</v>
+        <v>93.446</v>
       </c>
       <c r="L12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M12" s="3" t="n">
-        <v>89.70251</v>
+        <v>89.703</v>
       </c>
       <c r="N12" t="n">
-        <v>14.15725</v>
+        <v>14.157</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>-1.96177</v>
+        <v>-1.962</v>
       </c>
       <c r="P12" s="3" t="n">
-        <v>76.50747</v>
+        <v>76.50700000000001</v>
       </c>
       <c r="Q12" s="6" t="n">
-        <v>-43.9503</v>
+        <v>-43.95</v>
       </c>
       <c r="R12" s="6" t="n">
-        <v>-65.85196999999999</v>
+        <v>-65.852</v>
       </c>
       <c r="S12" s="6" t="n">
-        <v>-48.95605</v>
+        <v>-48.956</v>
       </c>
       <c r="T12" t="n">
-        <v>15.21267</v>
+        <v>15.213</v>
       </c>
       <c r="U12" t="n">
-        <v>12.62314</v>
+        <v>12.623</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>-38.84358</v>
+        <v>-38.844</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>-40.80246</v>
+        <v>-40.802</v>
       </c>
       <c r="X12" s="6" t="n">
-        <v>-39.46369</v>
+        <v>-39.464</v>
       </c>
     </row>
     <row r="13">
@@ -5198,73 +5198,73 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-14.81583</v>
+        <v>-14.816</v>
       </c>
       <c r="C13" t="n">
-        <v>28.68945</v>
+        <v>28.689</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-7.32261</v>
+        <v>-7.323</v>
       </c>
       <c r="E13" t="n">
-        <v>22.89189</v>
+        <v>22.892</v>
       </c>
       <c r="F13" t="n">
-        <v>20.95464</v>
+        <v>20.955</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>4.00086</v>
+        <v>4.001</v>
       </c>
       <c r="H13" s="4" t="n">
-        <v>-79.65685999999999</v>
+        <v>-79.657</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>49.15345</v>
+        <v>49.153</v>
       </c>
       <c r="J13" t="n">
         <v>18.226</v>
       </c>
       <c r="K13" s="3" t="n">
-        <v>94.33765</v>
+        <v>94.33799999999999</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>89.70251</v>
+        <v>89.703</v>
       </c>
       <c r="M13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>-3.42896</v>
+        <v>-3.429</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>-30.46607</v>
+        <v>-30.466</v>
       </c>
       <c r="P13" s="5" t="n">
-        <v>40.32456</v>
+        <v>40.325</v>
       </c>
       <c r="Q13" t="n">
-        <v>-26.43412</v>
+        <v>-26.434</v>
       </c>
       <c r="R13" s="6" t="n">
-        <v>-38.77389</v>
+        <v>-38.774</v>
       </c>
       <c r="S13" t="n">
-        <v>-28.23412</v>
+        <v>-28.234</v>
       </c>
       <c r="T13" t="n">
-        <v>18.8973</v>
+        <v>18.897</v>
       </c>
       <c r="U13" t="n">
-        <v>16.79418</v>
+        <v>16.794</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>-42.36278</v>
+        <v>-42.363</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>-43.99124</v>
+        <v>-43.991</v>
       </c>
       <c r="X13" s="6" t="n">
-        <v>-45.61932</v>
+        <v>-45.619</v>
       </c>
     </row>
     <row r="14">
@@ -5274,73 +5274,73 @@
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>6.28132</v>
+        <v>6.281</v>
       </c>
       <c r="C14" t="n">
-        <v>-29.80167</v>
+        <v>-29.802</v>
       </c>
       <c r="D14" t="n">
-        <v>-69.50832</v>
+        <v>-69.508</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.60524</v>
+        <v>-0.605</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>4.40284</v>
+        <v>4.403</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-49.73875</v>
+        <v>-49.739</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-38.36586</v>
+        <v>-38.366</v>
       </c>
       <c r="I14" t="n">
-        <v>-29.58903</v>
+        <v>-29.589</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-67.57532999999999</v>
+        <v>-67.575</v>
       </c>
       <c r="K14" t="n">
-        <v>16.99859</v>
+        <v>16.999</v>
       </c>
       <c r="L14" t="n">
-        <v>14.15725</v>
+        <v>14.157</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>-3.42896</v>
+        <v>-3.429</v>
       </c>
       <c r="N14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O14" s="5" t="n">
-        <v>58.97871</v>
+        <v>58.979</v>
       </c>
       <c r="P14" s="5" t="n">
-        <v>32.63976</v>
+        <v>32.64</v>
       </c>
       <c r="Q14" s="6" t="n">
-        <v>-52.59623</v>
+        <v>-52.596</v>
       </c>
       <c r="R14" s="6" t="n">
-        <v>-48.79397</v>
+        <v>-48.794</v>
       </c>
       <c r="S14" s="6" t="n">
-        <v>-35.23806</v>
+        <v>-35.238</v>
       </c>
       <c r="T14" t="n">
-        <v>-21.27026</v>
+        <v>-21.27</v>
       </c>
       <c r="U14" t="n">
-        <v>-24.00816</v>
+        <v>-24.008</v>
       </c>
       <c r="V14" t="n">
-        <v>-29.40753</v>
+        <v>-29.408</v>
       </c>
       <c r="W14" t="n">
-        <v>-28.64499</v>
+        <v>-28.645</v>
       </c>
       <c r="X14" s="6" t="n">
-        <v>-31.90173</v>
+        <v>-31.902</v>
       </c>
     </row>
     <row r="15">
@@ -5350,73 +5350,73 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-16.98196</v>
+        <v>-16.982</v>
       </c>
       <c r="C15" t="n">
-        <v>-11.28364</v>
+        <v>-11.284</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-56.29625</v>
+        <v>-56.296</v>
       </c>
       <c r="E15" t="n">
-        <v>-11.21629</v>
+        <v>-11.216</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-32.93458</v>
+        <v>-32.935</v>
       </c>
       <c r="G15" t="n">
-        <v>-21.52786</v>
+        <v>-21.528</v>
       </c>
       <c r="H15" t="n">
-        <v>-12.75944</v>
+        <v>-12.759</v>
       </c>
       <c r="I15" t="n">
-        <v>-22.01282</v>
+        <v>-22.013</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-66.14960000000001</v>
+        <v>-66.15000000000001</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>2.78819</v>
+        <v>2.788</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>-1.96177</v>
+        <v>-1.962</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>-30.46607</v>
+        <v>-30.466</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>58.97871</v>
+        <v>58.979</v>
       </c>
       <c r="O15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="P15" s="5" t="n">
-        <v>39.70852</v>
+        <v>39.709</v>
       </c>
       <c r="Q15" s="6" t="n">
-        <v>-47.94103</v>
+        <v>-47.941</v>
       </c>
       <c r="R15" s="6" t="n">
-        <v>-34.4169</v>
+        <v>-34.417</v>
       </c>
       <c r="S15" t="n">
-        <v>-25.42574</v>
+        <v>-25.426</v>
       </c>
       <c r="T15" t="n">
-        <v>-26.10393</v>
+        <v>-26.104</v>
       </c>
       <c r="U15" t="n">
-        <v>-27.51289</v>
+        <v>-27.513</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>1.48431</v>
+        <v>1.484</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>1.42856</v>
+        <v>1.429</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>2.10994</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="16">
@@ -5426,73 +5426,73 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-14.77048</v>
+        <v>-14.77</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>60.90001</v>
+        <v>60.9</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>-34.14033</v>
+        <v>-34.14</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>1.71781</v>
+        <v>1.718</v>
       </c>
       <c r="F16" t="n">
-        <v>-11.01625</v>
+        <v>-11.016</v>
       </c>
       <c r="G16" t="n">
-        <v>-14.69689</v>
+        <v>-14.697</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>-53.80746</v>
+        <v>-53.807</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>59.19622</v>
+        <v>59.196</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-30.55816</v>
+        <v>-30.558</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>56.06886</v>
+        <v>56.069</v>
       </c>
       <c r="L16" s="3" t="n">
-        <v>76.50747</v>
+        <v>76.50700000000001</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>40.32456</v>
+        <v>40.325</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>32.63976</v>
+        <v>32.64</v>
       </c>
       <c r="O16" s="5" t="n">
-        <v>39.70852</v>
+        <v>39.709</v>
       </c>
       <c r="P16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q16" s="6" t="n">
-        <v>-51.74646</v>
+        <v>-51.746</v>
       </c>
       <c r="R16" s="4" t="n">
-        <v>-79.54028</v>
+        <v>-79.54000000000001</v>
       </c>
       <c r="S16" s="6" t="n">
-        <v>-61.04808</v>
+        <v>-61.048</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>4.7452</v>
+        <v>4.745</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>2.54002</v>
+        <v>2.54</v>
       </c>
       <c r="V16" t="n">
-        <v>-17.17067</v>
+        <v>-17.171</v>
       </c>
       <c r="W16" t="n">
-        <v>-19.0748</v>
+        <v>-19.075</v>
       </c>
       <c r="X16" t="n">
-        <v>-13.78586</v>
+        <v>-13.786</v>
       </c>
     </row>
     <row r="17">
@@ -5502,73 +5502,73 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>64.46263</v>
+        <v>64.46299999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>25.36419</v>
+        <v>25.364</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>85.20281</v>
+        <v>85.203</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-52.55722</v>
+        <v>-52.557</v>
       </c>
       <c r="F17" t="n">
-        <v>-14.04712</v>
+        <v>-14.047</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>4.05813</v>
+        <v>4.058</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>39.4889</v>
+        <v>39.489</v>
       </c>
       <c r="I17" t="n">
-        <v>-21.32133</v>
+        <v>-21.321</v>
       </c>
       <c r="J17" t="n">
-        <v>27.49729</v>
+        <v>27.497</v>
       </c>
       <c r="K17" s="6" t="n">
-        <v>-44.3925</v>
+        <v>-44.393</v>
       </c>
       <c r="L17" s="6" t="n">
-        <v>-43.9503</v>
+        <v>-43.95</v>
       </c>
       <c r="M17" t="n">
-        <v>-26.43412</v>
+        <v>-26.434</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>-52.59623</v>
+        <v>-52.596</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>-47.94103</v>
+        <v>-47.941</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>-51.74646</v>
+        <v>-51.746</v>
       </c>
       <c r="Q17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="5" t="n">
-        <v>45.62704</v>
+        <v>45.627</v>
       </c>
       <c r="S17" s="3" t="n">
-        <v>72.67995999999999</v>
+        <v>72.68000000000001</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>57.06926</v>
+        <v>57.069</v>
       </c>
       <c r="U17" s="5" t="n">
-        <v>59.20297</v>
+        <v>59.203</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>-4.68467</v>
+        <v>-4.685</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>-4.82256</v>
+        <v>-4.823</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>3.5732</v>
+        <v>3.573</v>
       </c>
     </row>
     <row r="18">
@@ -5578,73 +5578,73 @@
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-3.0348</v>
+        <v>-3.035</v>
       </c>
       <c r="C18" s="6" t="n">
-        <v>-42.21633</v>
+        <v>-42.216</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>33.66139</v>
+        <v>33.661</v>
       </c>
       <c r="E18" t="n">
-        <v>15.90942</v>
+        <v>15.909</v>
       </c>
       <c r="F18" t="n">
-        <v>19.17446</v>
+        <v>19.174</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>40.90929</v>
+        <v>40.909</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>63.75776</v>
+        <v>63.758</v>
       </c>
       <c r="I18" t="n">
-        <v>-26.66455</v>
+        <v>-26.665</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>48.25596</v>
+        <v>48.256</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>-52.68317</v>
+        <v>-52.683</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>-65.85196999999999</v>
+        <v>-65.852</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>-38.77389</v>
+        <v>-38.774</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>-48.79397</v>
+        <v>-48.794</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>-34.4169</v>
+        <v>-34.417</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>-79.54028</v>
+        <v>-79.54000000000001</v>
       </c>
       <c r="Q18" s="5" t="n">
-        <v>45.62704</v>
+        <v>45.627</v>
       </c>
       <c r="R18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>51.96466</v>
+        <v>51.965</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>-10.2182</v>
+        <v>-10.218</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>-6.2972</v>
+        <v>-6.297</v>
       </c>
       <c r="V18" s="5" t="n">
-        <v>48.00901</v>
+        <v>48.009</v>
       </c>
       <c r="W18" s="5" t="n">
-        <v>48.25221</v>
+        <v>48.252</v>
       </c>
       <c r="X18" s="5" t="n">
-        <v>38.53326</v>
+        <v>38.533</v>
       </c>
     </row>
     <row r="19">
@@ -5654,73 +5654,73 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>52.39358</v>
+        <v>52.394</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-1.92828</v>
+        <v>-1.928</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>62.96937</v>
+        <v>62.969</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-60.11068</v>
+        <v>-60.111</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>-36.86386</v>
+        <v>-36.864</v>
       </c>
       <c r="G19" t="n">
-        <v>-19.18941</v>
+        <v>-19.189</v>
       </c>
       <c r="H19" t="n">
-        <v>22.85121</v>
+        <v>22.851</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>-53.76651</v>
+        <v>-53.767</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>-2.05046</v>
+        <v>-2.05</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-38.48145</v>
+        <v>-38.481</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>-48.95605</v>
+        <v>-48.956</v>
       </c>
       <c r="M19" t="n">
-        <v>-28.23412</v>
+        <v>-28.234</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>-35.23806</v>
+        <v>-35.238</v>
       </c>
       <c r="O19" t="n">
-        <v>-25.42574</v>
+        <v>-25.426</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>-61.04808</v>
+        <v>-61.048</v>
       </c>
       <c r="Q19" s="3" t="n">
-        <v>72.67995999999999</v>
+        <v>72.68000000000001</v>
       </c>
       <c r="R19" s="5" t="n">
-        <v>51.96466</v>
+        <v>51.965</v>
       </c>
       <c r="S19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>52.58409</v>
+        <v>52.584</v>
       </c>
       <c r="U19" s="5" t="n">
-        <v>53.46776</v>
+        <v>53.468</v>
       </c>
       <c r="V19" t="n">
-        <v>-25.52017</v>
+        <v>-25.52</v>
       </c>
       <c r="W19" t="n">
-        <v>-23.7379</v>
+        <v>-23.738</v>
       </c>
       <c r="X19" t="n">
-        <v>-16.2764</v>
+        <v>-16.276</v>
       </c>
     </row>
     <row r="20">
@@ -5730,73 +5730,73 @@
         </is>
       </c>
       <c r="B20" s="3" t="n">
-        <v>72.52561</v>
+        <v>72.526</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>61.19575</v>
+        <v>61.196</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>68.1054</v>
+        <v>68.105</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-64.29944</v>
+        <v>-64.29900000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>-22.60947</v>
+        <v>-22.609</v>
       </c>
       <c r="G20" t="n">
-        <v>-18.17756</v>
+        <v>-18.178</v>
       </c>
       <c r="H20" t="n">
-        <v>-18.64831</v>
+        <v>-18.648</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>3.05721</v>
+        <v>3.057</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>-0.47638</v>
+        <v>-0.476</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>10.83927</v>
+        <v>10.839</v>
       </c>
       <c r="L20" t="n">
-        <v>15.21267</v>
+        <v>15.213</v>
       </c>
       <c r="M20" t="n">
-        <v>18.8973</v>
+        <v>18.897</v>
       </c>
       <c r="N20" t="n">
-        <v>-21.27026</v>
+        <v>-21.27</v>
       </c>
       <c r="O20" t="n">
-        <v>-26.10393</v>
+        <v>-26.104</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>4.7452</v>
+        <v>4.745</v>
       </c>
       <c r="Q20" s="5" t="n">
-        <v>57.06926</v>
+        <v>57.069</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>-10.2182</v>
+        <v>-10.218</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>52.58409</v>
+        <v>52.584</v>
       </c>
       <c r="T20" s="2" t="n">
         <v>1</v>
       </c>
       <c r="U20" s="3" t="n">
-        <v>99.19754</v>
+        <v>99.19799999999999</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>-53.08595</v>
+        <v>-53.086</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>-52.58246</v>
+        <v>-52.582</v>
       </c>
       <c r="X20" s="6" t="n">
-        <v>-36.95438</v>
+        <v>-36.954</v>
       </c>
     </row>
     <row r="21">
@@ -5806,73 +5806,73 @@
         </is>
       </c>
       <c r="B21" s="3" t="n">
-        <v>72.51406</v>
+        <v>72.514</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>60.97076</v>
+        <v>60.971</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>70.13847</v>
+        <v>70.13800000000001</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-62.03289</v>
+        <v>-62.033</v>
       </c>
       <c r="F21" t="n">
-        <v>-19.35514</v>
+        <v>-19.355</v>
       </c>
       <c r="G21" t="n">
-        <v>-13.45361</v>
+        <v>-13.454</v>
       </c>
       <c r="H21" t="n">
-        <v>-14.0924</v>
+        <v>-14.092</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>4.86851</v>
+        <v>4.869</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>3.88942</v>
+        <v>3.889</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>8.12894</v>
+        <v>8.129</v>
       </c>
       <c r="L21" t="n">
-        <v>12.62314</v>
+        <v>12.623</v>
       </c>
       <c r="M21" t="n">
-        <v>16.79418</v>
+        <v>16.794</v>
       </c>
       <c r="N21" t="n">
-        <v>-24.00816</v>
+        <v>-24.008</v>
       </c>
       <c r="O21" t="n">
-        <v>-27.51289</v>
+        <v>-27.513</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>2.54002</v>
+        <v>2.54</v>
       </c>
       <c r="Q21" s="5" t="n">
-        <v>59.20297</v>
+        <v>59.203</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>-6.2972</v>
+        <v>-6.297</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>53.46776</v>
+        <v>53.468</v>
       </c>
       <c r="T21" s="3" t="n">
-        <v>99.19754</v>
+        <v>99.19799999999999</v>
       </c>
       <c r="U21" s="2" t="n">
         <v>1</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>-48.37605</v>
+        <v>-48.376</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>-48.06691</v>
+        <v>-48.067</v>
       </c>
       <c r="X21" s="6" t="n">
-        <v>-32.4185</v>
+        <v>-32.419</v>
       </c>
     </row>
     <row r="22">
@@ -5882,73 +5882,73 @@
         </is>
       </c>
       <c r="B22" s="6" t="n">
-        <v>-38.22553</v>
+        <v>-38.226</v>
       </c>
       <c r="C22" t="n">
-        <v>-18.86598</v>
+        <v>-18.866</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-5.63831</v>
+        <v>-5.638</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>58.72694</v>
+        <v>58.727</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>47.08376</v>
+        <v>47.084</v>
       </c>
       <c r="G22" s="3" t="n">
-        <v>72.64440999999999</v>
+        <v>72.64400000000001</v>
       </c>
       <c r="H22" s="3" t="n">
-        <v>72.87056</v>
+        <v>72.871</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>32.36246</v>
+        <v>32.362</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>55.1699</v>
+        <v>55.17</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>-44.02255</v>
+        <v>-44.023</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>-38.84358</v>
+        <v>-38.844</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>-42.36278</v>
+        <v>-42.363</v>
       </c>
       <c r="N22" t="n">
-        <v>-29.40753</v>
+        <v>-29.408</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>1.48431</v>
+        <v>1.484</v>
       </c>
       <c r="P22" t="n">
-        <v>-17.17067</v>
+        <v>-17.171</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>-4.68467</v>
+        <v>-4.685</v>
       </c>
       <c r="R22" s="5" t="n">
-        <v>48.00901</v>
+        <v>48.009</v>
       </c>
       <c r="S22" t="n">
-        <v>-25.52017</v>
+        <v>-25.52</v>
       </c>
       <c r="T22" s="6" t="n">
-        <v>-53.08595</v>
+        <v>-53.086</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>-48.37605</v>
+        <v>-48.376</v>
       </c>
       <c r="V22" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W22" s="3" t="n">
-        <v>99.43942</v>
+        <v>99.43899999999999</v>
       </c>
       <c r="X22" s="3" t="n">
-        <v>94.61597</v>
+        <v>94.616</v>
       </c>
     </row>
     <row r="23">
@@ -5958,73 +5958,73 @@
         </is>
       </c>
       <c r="B23" s="6" t="n">
-        <v>-38.07816</v>
+        <v>-38.078</v>
       </c>
       <c r="C23" t="n">
         <v>-21.036</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-6.16892</v>
+        <v>-6.169</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>57.27435</v>
+        <v>57.274</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>45.04246</v>
+        <v>45.042</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>69.93471</v>
+        <v>69.935</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>73.12794</v>
+        <v>73.128</v>
       </c>
       <c r="I23" t="n">
-        <v>28.97795</v>
+        <v>28.978</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>53.07327</v>
+        <v>53.073</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>-45.71336</v>
+        <v>-45.713</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>-40.80246</v>
+        <v>-40.802</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>-43.99124</v>
+        <v>-43.991</v>
       </c>
       <c r="N23" t="n">
-        <v>-28.64499</v>
+        <v>-28.645</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>1.42856</v>
+        <v>1.429</v>
       </c>
       <c r="P23" t="n">
-        <v>-19.0748</v>
+        <v>-19.075</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>-4.82256</v>
+        <v>-4.823</v>
       </c>
       <c r="R23" s="5" t="n">
-        <v>48.25221</v>
+        <v>48.252</v>
       </c>
       <c r="S23" t="n">
-        <v>-23.7379</v>
+        <v>-23.738</v>
       </c>
       <c r="T23" s="6" t="n">
-        <v>-52.58246</v>
+        <v>-52.582</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>-48.06691</v>
+        <v>-48.067</v>
       </c>
       <c r="V23" s="3" t="n">
-        <v>99.43942</v>
+        <v>99.43899999999999</v>
       </c>
       <c r="W23" s="2" t="n">
         <v>1</v>
       </c>
       <c r="X23" s="3" t="n">
-        <v>95.60227999999999</v>
+        <v>95.602</v>
       </c>
     </row>
     <row r="24">
@@ -6034,70 +6034,70 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-26.08985</v>
+        <v>-26.09</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-7.27284</v>
+        <v>-7.273</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>4.64994</v>
+        <v>4.65</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>46.11994</v>
+        <v>46.12</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>40.57326</v>
+        <v>40.573</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>69.06755</v>
+        <v>69.068</v>
       </c>
       <c r="H24" s="3" t="n">
-        <v>74.03353</v>
+        <v>74.03400000000001</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>32.6452</v>
+        <v>32.645</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>52.17562</v>
+        <v>52.176</v>
       </c>
       <c r="K24" s="6" t="n">
-        <v>-47.2251</v>
+        <v>-47.225</v>
       </c>
       <c r="L24" s="6" t="n">
-        <v>-39.46369</v>
+        <v>-39.464</v>
       </c>
       <c r="M24" s="6" t="n">
-        <v>-45.61932</v>
+        <v>-45.619</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>-31.90173</v>
+        <v>-31.902</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>2.10994</v>
+        <v>2.11</v>
       </c>
       <c r="P24" t="n">
-        <v>-13.78586</v>
+        <v>-13.786</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>3.5732</v>
+        <v>3.573</v>
       </c>
       <c r="R24" s="5" t="n">
-        <v>38.53326</v>
+        <v>38.533</v>
       </c>
       <c r="S24" t="n">
-        <v>-16.2764</v>
+        <v>-16.276</v>
       </c>
       <c r="T24" s="6" t="n">
-        <v>-36.95438</v>
+        <v>-36.954</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>-32.4185</v>
+        <v>-32.419</v>
       </c>
       <c r="V24" s="3" t="n">
-        <v>94.61597</v>
+        <v>94.616</v>
       </c>
       <c r="W24" s="3" t="n">
-        <v>95.60227999999999</v>
+        <v>95.602</v>
       </c>
       <c r="X24" s="2" t="n">
         <v>1</v>
